--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="265">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -274,6 +274,15 @@
     <t xml:space="preserve">years</t>
   </si>
   <si>
+    <t xml:space="preserve">t0gdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date to start the accumulation of degree days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sgdd</t>
   </si>
   <si>
@@ -308,6 +317,21 @@
   </si>
   <si>
     <t xml:space="preserve">Base temperature for the calculation of degree days to senescence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,1,2} discrete values, to allow for any absent/proportional/more than proportional effects of temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,1,2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ysen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0,1,2} discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod</t>
   </si>
   <si>
     <t xml:space="preserve">SLA</t>
@@ -523,15 +547,6 @@
   </si>
   <si>
     <t xml:space="preserve">Percent of lignin+cutin over dry weight in leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticleDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density of fuel particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kg/m3</t>
   </si>
   <si>
     <t xml:space="preserve">gammaSWR</t>
@@ -1450,11 +1465,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2062,41 +2077,41 @@
         <v>38</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,15 +2128,15 @@
         <v>38</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>98</v>
@@ -2130,49 +2145,49 @@
         <v>38</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>106</v>
@@ -2180,42 +2195,42 @@
       <c r="D48" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>102</v>
+      <c r="E48" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,7 +2238,7 @@
         <v>113</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>114</v>
@@ -2231,8 +2246,8 @@
       <c r="D51" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>109</v>
+      <c r="E51" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,7 +2255,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>116</v>
@@ -2257,7 +2272,7 @@
         <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>119</v>
@@ -2265,25 +2280,25 @@
       <c r="D53" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>39</v>
+      <c r="E53" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>122</v>
+      <c r="E54" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,7 +2306,7 @@
         <v>123</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>124</v>
@@ -2308,58 +2323,58 @@
         <v>126</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="D56" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>129</v>
+      <c r="E56" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>136</v>
@@ -2368,92 +2383,92 @@
         <v>38</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,7 +2476,7 @@
         <v>149</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>150</v>
@@ -2470,32 +2485,32 @@
         <v>38</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="D66" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>155</v>
@@ -2508,45 +2523,45 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="4" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+      <c r="B69" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>162</v>
-      </c>
       <c r="D69" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>164</v>
@@ -2555,105 +2570,105 @@
         <v>38</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,7 +2676,7 @@
         <v>180</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>181</v>
@@ -2670,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2693,7 @@
         <v>182</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>183</v>
@@ -2690,12 +2705,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>186</v>
@@ -2704,7 +2719,7 @@
         <v>38</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2727,7 @@
         <v>187</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>188</v>
@@ -2724,12 +2739,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>191</v>
@@ -2737,13 +2752,16 @@
       <c r="D81" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>193</v>
@@ -2751,25 +2769,22 @@
       <c r="D82" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2792,7 @@
         <v>197</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>198</v>
@@ -2785,13 +2800,16 @@
       <c r="D84" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>200</v>
@@ -2799,81 +2817,78 @@
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>134</v>
+      <c r="E88" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>207</v>
+      <c r="A89" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>211</v>
@@ -2881,76 +2896,76 @@
       <c r="D90" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="6" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +2973,7 @@
         <v>225</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>226</v>
@@ -2967,24 +2982,24 @@
         <v>38</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +3007,7 @@
         <v>230</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>231</v>
@@ -3000,70 +3015,70 @@
       <c r="D97" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>232</v>
+      <c r="E97" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="B99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="B100" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>38</v>
@@ -3073,14 +3088,14 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>243</v>
+      <c r="A102" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>38</v>
@@ -3091,19 +3106,19 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +3126,7 @@
         <v>248</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>249</v>
@@ -3120,7 +3135,7 @@
         <v>38</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,7 +3143,7 @@
         <v>250</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>251</v>
@@ -3137,79 +3152,111 @@
         <v>38</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">xsen</t>
   </si>
   <si>
-    <t xml:space="preserve">{0,1,2} discrete values, to allow for any absent/proportional/more than proportional effects of temperature</t>
+    <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of temperature  on senescence</t>
   </si>
   <si>
     <t xml:space="preserve">{0,1,2}</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">ysen</t>
   </si>
   <si>
-    <t xml:space="preserve">{0,1,2} discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod</t>
+    <t xml:space="preserve">Discrete values, to allow for any absent/proportional/more than proportional effects of photoperiod  on senescence</t>
   </si>
   <si>
     <t xml:space="preserve">SLA</t>
@@ -1466,10 +1466,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="270">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1196,6 +1196,21 @@
   </si>
   <si>
     <t xml:space="preserve">g dry/g dry/day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRsapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapwood daily senescence rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRfineroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine root daily senescence rate</t>
   </si>
   <si>
     <t xml:space="preserve">SeedProductionHeight</t>
@@ -1465,11 +1480,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A102" activeCellId="1" sqref="E103 A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3071,28 +3086,28 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>242</v>
+      <c r="B102" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>245</v>
@@ -3101,18 +3116,18 @@
         <v>38</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
@@ -3122,14 +3137,14 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>248</v>
+      <c r="A104" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>38</v>
@@ -3140,19 +3155,19 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3175,7 @@
         <v>253</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>254</v>
@@ -3169,7 +3184,7 @@
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3192,7 @@
         <v>255</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>256</v>
@@ -3186,79 +3201,111 @@
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="272">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -657,6 +657,12 @@
       </rPr>
       <t xml:space="preserve">-1</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WUE_decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponent for relative WUE decay depending on % PAR </t>
   </si>
   <si>
     <t xml:space="preserve">pRootDisc</t>
@@ -1480,11 +1486,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="1" sqref="E103 A102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2733,11 +2739,9 @@
       <c r="D79" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
@@ -2751,24 +2755,24 @@
         <v>38</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,21 +2789,24 @@
         <v>38</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C83" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,11 +2822,8 @@
       <c r="D84" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>199</v>
       </c>
@@ -2832,22 +2836,25 @@
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,11 +2870,8 @@
       <c r="D87" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>206</v>
       </c>
@@ -2880,11 +2884,11 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
@@ -2896,6 +2900,9 @@
       </c>
       <c r="D89" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,12 +2918,9 @@
       <c r="D90" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -2928,93 +2932,93 @@
       <c r="D91" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C92" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="6" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C93" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +3026,7 @@
         <v>230</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>231</v>
@@ -3031,7 +3035,7 @@
         <v>38</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,7 +3043,7 @@
         <v>232</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>233</v>
@@ -3048,100 +3052,100 @@
         <v>38</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>250</v>
@@ -3154,11 +3158,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>252</v>
@@ -3175,7 +3179,7 @@
         <v>253</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>254</v>
@@ -3192,7 +3196,7 @@
         <v>255</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>256</v>
@@ -3201,24 +3205,24 @@
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3230,7 @@
         <v>260</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>261</v>
@@ -3235,7 +3239,7 @@
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,7 +3247,7 @@
         <v>262</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3260,7 +3264,7 @@
         <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>265</v>
@@ -3269,7 +3273,7 @@
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3281,7 @@
         <v>266</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>267</v>
@@ -3286,7 +3290,7 @@
         <v>38</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3298,7 @@
         <v>268</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>269</v>
@@ -3303,10 +3307,26 @@
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="279">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1175,6 +1175,27 @@
   </si>
   <si>
     <t xml:space="preserve">Maintenance respiration rates for fine roots. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf construction costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g gluc · g dry-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCsapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapwood construction costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCfineroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine root construction costs</t>
   </si>
   <si>
     <t xml:space="preserve">RGRleafmax</t>
@@ -1486,11 +1507,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E101" activeCellId="0" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3085,101 +3106,101 @@
       <c r="D100" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>239</v>
+      <c r="E100" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>242</v>
+      <c r="E101" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>245</v>
+      <c r="E102" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C103" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+      <c r="B104" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="D104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="B105" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>249</v>
+      <c r="B106" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>254</v>
@@ -3188,18 +3209,18 @@
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
@@ -3209,20 +3230,20 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>257</v>
+      <c r="A108" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3251,7 @@
         <v>260</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>261</v>
@@ -3239,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,7 +3268,7 @@
         <v>262</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3256,7 +3277,7 @@
         <v>38</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,7 +3285,7 @@
         <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>265</v>
@@ -3273,63 +3294,111 @@
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -439,6 +439,12 @@
       </rPr>
       <t xml:space="preserve">-2</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar2Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root area to leaf area ratio</t>
   </si>
   <si>
     <t xml:space="preserve">LeafWidth</t>
@@ -1507,11 +1513,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E101" activeCellId="0" sqref="E101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2374,7 +2380,7 @@
         <v>38</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,58 +2397,58 @@
         <v>38</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="D59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2456,7 @@
         <v>140</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>141</v>
@@ -2459,24 +2465,24 @@
         <v>38</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2490,7 @@
         <v>145</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>146</v>
@@ -2493,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2507,7 @@
         <v>147</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>148</v>
@@ -2510,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,7 +2524,7 @@
         <v>149</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>150</v>
@@ -2527,7 +2533,7 @@
         <v>38</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,7 +2541,7 @@
         <v>151</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>152</v>
@@ -2544,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,84 +2558,84 @@
         <v>153</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="D67" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="D70" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,7 +2643,7 @@
         <v>168</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>169</v>
@@ -2646,7 +2652,7 @@
         <v>38</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2660,7 @@
         <v>170</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>171</v>
@@ -2663,30 +2669,32 @@
         <v>38</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="D74" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>177</v>
@@ -2701,7 +2709,7 @@
         <v>178</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>179</v>
@@ -2709,16 +2717,14 @@
       <c r="D76" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>181</v>
@@ -2727,15 +2733,15 @@
         <v>38</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>183</v>
@@ -2744,30 +2750,32 @@
         <v>38</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>188</v>
@@ -2775,16 +2783,14 @@
       <c r="D80" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>190</v>
@@ -2793,24 +2799,24 @@
         <v>38</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2824,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>195</v>
@@ -2827,21 +2833,24 @@
         <v>38</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,7 +2858,7 @@
         <v>199</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>200</v>
@@ -2857,16 +2866,13 @@
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>202</v>
@@ -2874,22 +2880,25 @@
       <c r="D86" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2906,7 @@
         <v>206</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>207</v>
@@ -2905,16 +2914,13 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>209</v>
@@ -2922,22 +2928,25 @@
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>211</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2954,7 @@
         <v>212</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>213</v>
@@ -2953,16 +2962,13 @@
       <c r="D91" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>215</v>
@@ -2970,93 +2976,93 @@
       <c r="D92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="6" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,7 +3070,7 @@
         <v>232</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>233</v>
@@ -3073,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,7 +3087,7 @@
         <v>234</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>235</v>
@@ -3090,24 +3096,24 @@
         <v>38</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +3121,7 @@
         <v>239</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>240</v>
@@ -3124,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3138,7 @@
         <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>242</v>
@@ -3141,100 +3147,100 @@
         <v>38</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>257</v>
-      </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>259</v>
@@ -3247,11 +3253,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>261</v>
@@ -3268,7 +3274,7 @@
         <v>262</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3285,7 +3291,7 @@
         <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>265</v>
@@ -3294,24 +3300,24 @@
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3325,7 @@
         <v>269</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>270</v>
@@ -3328,7 +3334,7 @@
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3342,7 @@
         <v>271</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>272</v>
@@ -3353,7 +3359,7 @@
         <v>273</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>274</v>
@@ -3362,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,7 +3376,7 @@
         <v>275</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>276</v>
@@ -3379,7 +3385,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3393,7 @@
         <v>277</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>278</v>
@@ -3396,10 +3402,26 @@
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="285">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -980,21 +980,52 @@
     <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
   </si>
   <si>
-    <t xml:space="preserve">Narea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen mass per leaf area</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">g N·m</t>
+    <t xml:space="preserve">Vmax298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">·s</t>
     </r>
     <r>
       <rPr>
@@ -1005,14 +1036,35 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">·m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Vmax298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
+    <t xml:space="preserve">Jmax298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum rate of electron transport at 298K</t>
   </si>
   <si>
     <r>
@@ -1033,28 +1085,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mol CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·s</t>
+      <t xml:space="preserve">mol electrons·s</t>
     </r>
     <r>
       <rPr>
@@ -1090,73 +1121,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Jmax298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum rate of electron transport at 298K</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mol electrons·s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2</t>
-    </r>
+    <t xml:space="preserve">Nleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen mass per leaf dry mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg N / g dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nsapwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen mass per sapwood dry mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nfineroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen mass per fine root dry mass</t>
   </si>
   <si>
     <t xml:space="preserve">WoodC</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wood carbon content per dry weight </t>
+    <t xml:space="preserve">Wood carbon content per dry mass </t>
   </si>
   <si>
     <t xml:space="preserve">g C / g dry</t>
@@ -1513,11 +1505,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2980,8 +2972,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -2993,11 +2985,11 @@
       <c r="D93" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>219</v>
       </c>
@@ -3027,7 +3019,7 @@
       <c r="D95" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="0" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3045,58 +3037,58 @@
         <v>38</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>231</v>
+      <c r="E97" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>231</v>
+      <c r="E98" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,41 +3105,41 @@
         <v>38</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,117 +3156,117 @@
         <v>38</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>248</v>
+      <c r="E104" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>251</v>
+      <c r="E105" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C107" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="B108" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="B109" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="B110" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3287,11 +3279,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>265</v>
@@ -3308,7 +3300,7 @@
         <v>266</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>267</v>
@@ -3317,41 +3309,41 @@
         <v>38</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,7 +3351,7 @@
         <v>273</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>274</v>
@@ -3368,7 +3360,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3368,7 @@
         <v>275</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>276</v>
@@ -3385,7 +3377,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3385,7 @@
         <v>277</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>278</v>
@@ -3402,7 +3394,7 @@
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3402,7 @@
         <v>279</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>280</v>
@@ -3419,11 +3411,43 @@
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="283">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -669,12 +669,6 @@
   </si>
   <si>
     <t xml:space="preserve">Exponent for relative WUE decay depending on % PAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pRootDisc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative root conductance leading to hydraulic disconnection from a soil layer</t>
   </si>
   <si>
     <t xml:space="preserve">Gswmin</t>
@@ -1506,10 +1500,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2777,7 +2771,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>189</v>
       </c>
@@ -2791,24 +2785,24 @@
         <v>38</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,24 +2819,21 @@
         <v>38</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,8 +2849,11 @@
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>201</v>
       </c>
@@ -2872,25 +2866,22 @@
       <c r="D86" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,8 +2897,11 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
@@ -2920,11 +2914,11 @@
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
@@ -2936,9 +2930,6 @@
       </c>
       <c r="D90" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,8 +2945,11 @@
       <c r="D91" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>214</v>
       </c>
@@ -2968,67 +2962,67 @@
       <c r="D92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>221</v>
+      <c r="E94" s="0" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>227</v>
@@ -3037,7 +3031,7 @@
         <v>38</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3039,7 @@
         <v>228</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>229</v>
@@ -3054,41 +3048,41 @@
         <v>38</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>232</v>
+      <c r="E98" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,7 +3090,7 @@
         <v>236</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>237</v>
@@ -3105,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3107,7 @@
         <v>238</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>239</v>
@@ -3122,24 +3116,24 @@
         <v>38</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,7 +3141,7 @@
         <v>243</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>244</v>
@@ -3156,7 +3150,7 @@
         <v>38</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3158,7 @@
         <v>245</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>246</v>
@@ -3173,100 +3167,100 @@
         <v>38</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>249</v>
+      <c r="E105" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>226</v>
+      <c r="B109" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3279,11 +3273,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="0" t="s">
         <v>264</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>265</v>
@@ -3300,7 +3294,7 @@
         <v>266</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>267</v>
@@ -3317,7 +3311,7 @@
         <v>268</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>269</v>
@@ -3326,24 +3320,24 @@
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3351,7 +3345,7 @@
         <v>273</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>274</v>
@@ -3360,7 +3354,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3362,7 @@
         <v>275</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>276</v>
@@ -3385,7 +3379,7 @@
         <v>277</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>278</v>
@@ -3394,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3396,7 @@
         <v>279</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>280</v>
@@ -3411,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,7 +3413,7 @@
         <v>281</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>282</v>
@@ -3428,26 +3422,10 @@
         <v>38</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="0" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1230,6 +1230,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fine root daily senescence rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MortalityBaselineRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deterministic proportion or probability specifying the baseline reduction of cohort's density occurring in a year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year-1</t>
   </si>
   <si>
     <t xml:space="preserve">SeedProductionHeight</t>
@@ -1499,11 +1511,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3239,10 +3251,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -3252,18 +3264,18 @@
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>38</v>
@@ -3273,14 +3285,14 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="C111" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>38</v>
@@ -3291,13 +3303,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>38</v>
@@ -3308,64 +3320,64 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>38</v>
@@ -3376,56 +3388,72 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E119" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="289">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1230,6 +1230,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fine root daily senescence rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum relative starch for sapwood growth</t>
   </si>
   <si>
     <t xml:space="preserve">MortalityBaselineRate</t>
@@ -1512,10 +1518,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3255,41 +3261,41 @@
         <v>259</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
+      <c r="B110" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="C110" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="D110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>267</v>
@@ -3302,11 +3308,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>269</v>
@@ -3323,7 +3329,7 @@
         <v>270</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>271</v>
@@ -3340,7 +3346,7 @@
         <v>272</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>273</v>
@@ -3349,24 +3355,24 @@
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3380,7 @@
         <v>277</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>278</v>
@@ -3383,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,7 +3397,7 @@
         <v>279</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>280</v>
@@ -3408,7 +3414,7 @@
         <v>281</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>282</v>
@@ -3417,7 +3423,7 @@
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3431,7 @@
         <v>283</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>284</v>
@@ -3434,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3448,7 @@
         <v>285</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>286</v>
@@ -3451,10 +3457,26 @@
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="291">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1259,6 +1259,30 @@
     <t xml:space="preserve">Minimum height for seed production</t>
   </si>
   <si>
+    <t xml:space="preserve">ProbRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of recruitment within the bioclimatic envelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinTempRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum average temperature of the coldest month for successful recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMoistureRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum value of the moisture index (annual precipitation over annual PET) for successful recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinFPARRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum percentage of PAR at the ground level for successful recruitment</t>
+  </si>
+  <si>
     <t xml:space="preserve">RecrTreeDBH</t>
   </si>
   <si>
@@ -1302,24 +1326,6 @@
   </si>
   <si>
     <t xml:space="preserve">Recruitment depth corresponding to 95% of fine roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinTempRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum average temperature of the coldest month for successful recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMoistureRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum value of the moisture index (annual precipitation over annual PET) for successful recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinFPARRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum percentage of PAR at the ground level for successful recruitment</t>
   </si>
 </sst>
 </file>
@@ -1517,11 +1523,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3321,7 +3327,7 @@
         <v>38</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3338,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3361,7 @@
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,75 +3378,75 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>277</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C119" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3463,7 @@
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,13 +3480,26 @@
         <v>38</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="294">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1202,10 +1202,47 @@
     <t xml:space="preserve">RGRsapwoodmax</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum sapwood relative growth rate (in basal area or sapwood area)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum sapwood growth rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">relative to sapwood area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(for shrubs)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">cm2/cm2/day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGRcambiummax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sapwood growth rate relative to cambium perimeter (for trees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm2/cm/day</t>
   </si>
   <si>
     <t xml:space="preserve">RGRfinerootmax</t>
@@ -1336,7 +1373,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1412,6 +1449,12 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1523,11 +1566,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3259,32 +3302,32 @@
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>263</v>
@@ -3293,24 +3336,24 @@
         <v>38</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="B111" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="C111" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,95 +3361,95 @@
         <v>268</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C112" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="0" t="s">
+      <c r="C113" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>278</v>
+      <c r="A117" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
@@ -3417,13 +3460,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>38</v>
@@ -3434,19 +3477,19 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3497,7 @@
         <v>285</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>286</v>
@@ -3463,35 +3506,35 @@
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>38</v>
@@ -3500,7 +3543,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="295">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Degree days for leaf budburst</t>
   </si>
   <si>
-    <t xml:space="preserve">ºC</t>
+    <t xml:space="preserve">Degrees C</t>
   </si>
   <si>
     <t xml:space="preserve">Tbgdd</t>
@@ -397,12 +397,505 @@
     <t xml:space="preserve">Leaf area to sapwood area ratio</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">m2 / m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar2Al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root area to leaf area ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific root length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm/g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine root length density (density of root length per soil volume)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm/cm3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxFMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue moisture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum fuel moisture (in percent of dry weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minFMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum fuel moisture (in percent of dry weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafPI0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmotic potential at full turgor of leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafEPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoplastic fraction (proportion of water outside the living cells) in leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemPI0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmotic potential at full turgor of symplastic xylem tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemEPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of symplastic xylem tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StemAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoplastic fraction (proportion of water outside the living cells) in stem xylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flammability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface-area-to-volume ratio of the small fuel (1h) fraction (leaves and branches &lt; 6.35mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeatContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High fuel heat content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kJ/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LigninPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of lignin+cutin over dry weight in leaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gammaSWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction/Interception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflectance (albedo) coefficient for SWR (gammaPAR is 0.8*gammaSWR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unitless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alphaSWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbance coefficient for SWR (alphaPAR is alphaSWR*1.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kPAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light extinction coeficient for PAR (extinction coefficient for SWR is kPAR/1.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canopy water storage capacity per LAI unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm/LAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmax_LAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpiration/Photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical coefficient relating LAI with the ratio of maximum transpiration over potential evapotranspiration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmax_LAIsq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical coefficient relating squared LAI with the ratio of maximum transpiration over potential evapotranspiration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psi_Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water potential corresponding to stomatal closure (aprox.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psi_Critic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water potential corresponding to 50% of stem cavitation (~ 50% PLC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water use efficiency (gross photosynthesis over transpiration)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">g C * mm H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WUE_decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponent for relative WUE decay depending on % PAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gswmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum stomatal conductance to water vapour</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O * s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gswmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum stomatal conductance to water vapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCleaf_kmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum leaf hydraulic conductance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mmol H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O * s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* MPa</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VCleaf_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter c of the leaf vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCleaf_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter d of the leaf vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmax_stemxylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of stem xylem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">kg H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
@@ -412,245 +905,189 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mpa</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter c of the stem xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter d of the stem xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmax_rootxylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of root xylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter c of the root xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ar2Al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root area to leaf area ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeafWidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaf width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific root length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm/g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine root length density (density of root length per soil volume)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm/cm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxFMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tissue moisture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum fuel moisture (in percent of dry weight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minFMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum fuel moisture (in percent of dry weight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeafPI0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmotic potential at full turgor of leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeafEPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeafAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoplastic fraction (proportion of water outside the living cells) in leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StemPI0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmotic potential at full turgor of symplastic xylem tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StemEPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modulus of elasticity (capacity of the cell wall to resist changes in volume in response to changes in turgor) of symplastic xylem tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StemAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoplastic fraction (proportion of water outside the living cells) in stem xylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flammability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface-area-to-volume ratio of the small fuel (1h) fraction (leaves and branches &lt; 6.35mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2/m3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeatContent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High fuel heat content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kJ/kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LigninPercent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percent of lignin+cutin over dry weight in leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gammaSWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinction/Interception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflectance (albedo) coefficient for SWR (gammaPAR is 0.8*gammaSWR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unitless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alphaSWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absorbance coefficient for SWR (alphaPAR is alphaSWR*1.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light extinction coeficient for PAR (extinction coefficient for SWR is kPAR/1.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canopy water storage capacity per LAI unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm/LAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tmax_LAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transpiration/Photosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical coefficient relating LAI with the ratio of maximum transpiration over potential evapotranspiration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tmax_LAIsq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical coefficient relating squared LAI with the ratio of maximum transpiration over potential evapotranspiration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psi_Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water potential corresponding to stomatal closure (aprox.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psi_Critic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water potential corresponding to 50% of stem cavitation (~ 50% PLC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water use efficiency (gross photosynthesis over transpiration)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">g C · mm H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O</t>
+    <t xml:space="preserve">Jmax298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum rate of electron transport at 298K</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol electrons * s</t>
     </r>
     <r>
       <rPr>
@@ -661,52 +1098,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">WUE_decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponent for relative WUE decay depending on % PAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gswmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum stomatal conductance to water vapour</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mol H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O·s</t>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* m</t>
     </r>
     <r>
       <rPr>
@@ -717,404 +1119,10 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">-2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gswmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum stomatal conductance to water vapour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCleaf_kmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum leaf hydraulic conductance</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mmol H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O·s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·MPa</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">VCleaf_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the leaf vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCleaf_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the leaf vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kmax_stemxylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of stem xylem</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kg H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O·s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·MPa</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">VCstem_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the stem xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCstem_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the stem xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kmax_rootxylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of root xylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCroot_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the root xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCroot_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmax298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mol CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Jmax298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum rate of electron transport at 298K</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mol electrons·s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">·m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Nleaf</t>
   </si>
   <si>
@@ -1154,7 +1162,7 @@
     <t xml:space="preserve">Maintenance respiration rates for leaves. </t>
   </si>
   <si>
-    <t xml:space="preserve">g gluc · g dry-1 · day-1</t>
+    <t xml:space="preserve">g gluc * g dry-1 * day-1</t>
   </si>
   <si>
     <t xml:space="preserve">RERsapwood</t>
@@ -1175,7 +1183,7 @@
     <t xml:space="preserve">Leaf construction costs</t>
   </si>
   <si>
-    <t xml:space="preserve">g gluc · g dry-1</t>
+    <t xml:space="preserve">g gluc * g dry-1</t>
   </si>
   <si>
     <t xml:space="preserve">CCsapwood</t>
@@ -1202,35 +1210,7 @@
     <t xml:space="preserve">RGRsapwoodmax</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Maximum sapwood growth rate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">relative to sapwood area </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(for shrubs)</t>
-    </r>
+    <t xml:space="preserve">Maximum sapwood growth rate relative to sapwood area (for shrubs)</t>
   </si>
   <si>
     <t xml:space="preserve">cm2/cm2/day</t>
@@ -1420,12 +1400,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -1446,15 +1424,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Symbol"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1512,7 +1490,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1537,7 +1515,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1566,11 +1548,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B86" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2432,7 +2414,7 @@
       <c r="D56" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2786,118 +2768,118 @@
         <v>38</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>38</v>
@@ -2905,47 +2887,47 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>38</v>
@@ -2953,47 +2935,47 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>144</v>
+      <c r="E88" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>38</v>
@@ -3001,336 +2983,336 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>216</v>
+      <c r="E92" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>219</v>
+      <c r="E93" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>233</v>
+      <c r="E98" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>233</v>
+      <c r="E100" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>240</v>
+      <c r="E101" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>240</v>
+      <c r="E103" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>247</v>
+      <c r="E104" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>38</v>
@@ -3341,30 +3323,30 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>269</v>
       </c>
+      <c r="B112" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="C112" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>38</v>
@@ -3374,14 +3356,14 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>269</v>
+      <c r="A113" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
@@ -3392,13 +3374,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
@@ -3409,13 +3391,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>38</v>
@@ -3426,13 +3408,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>38</v>
@@ -3442,14 +3424,14 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>269</v>
+      <c r="A117" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
@@ -3460,13 +3442,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>38</v>
@@ -3477,13 +3459,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>38</v>
@@ -3494,30 +3476,30 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>38</v>
@@ -3528,13 +3510,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>269</v>
+        <v>291</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>38</v>
@@ -3545,13 +3527,13 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>38</v>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="297">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -627,10 +627,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">WUE_decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponent for relative WUE decay depending on % PAR </t>
+    <t xml:space="preserve">WUE_par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponent for gross photosynthesis decay depending on % PAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUE_co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponent for gross photosynthesis dependency on atmospheric CO2 concentration</t>
   </si>
   <si>
     <t xml:space="preserve">Gswmin</t>
@@ -849,16 +855,18 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">O</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">O * s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
     </r>
     <r>
       <rPr>
@@ -868,7 +876,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">s</t>
+      <t xml:space="preserve"> * m</t>
     </r>
     <r>
       <rPr>
@@ -887,21 +895,102 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> * Mpa</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter c of the stem xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter d of the stem xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmax_rootxylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of root xylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter c of the root xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmax298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">m</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* s</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
@@ -917,138 +1006,9 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Mpa</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">VCstem_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the stem xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCstem_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the stem xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kmax_rootxylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of root xylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCroot_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the root xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCroot_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmax298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Rubisco carboxilation rate</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mol CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">* s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">m</t>
+      <t xml:space="preserve">* m</t>
     </r>
     <r>
       <rPr>
@@ -1353,7 +1313,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1400,12 +1360,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1420,12 +1374,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1490,7 +1438,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1515,15 +1463,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1548,11 +1492,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B86" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2820,7 +2764,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -2833,25 +2777,23 @@
       <c r="D81" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C82" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,21 +2810,24 @@
         <v>38</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C84" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,11 +2843,8 @@
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>202</v>
       </c>
@@ -2916,21 +2858,24 @@
         <v>38</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,11 +2891,8 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>209</v>
       </c>
@@ -2964,10 +2906,10 @@
         <v>38</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>211</v>
       </c>
@@ -2979,6 +2921,9 @@
       </c>
       <c r="D90" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,11 +2939,8 @@
       <c r="D91" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
@@ -3011,67 +2953,67 @@
       <c r="D92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C93" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>228</v>
@@ -3080,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3030,7 @@
         <v>229</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>230</v>
@@ -3097,41 +3039,41 @@
         <v>38</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3081,7 @@
         <v>237</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>238</v>
@@ -3147,8 +3089,8 @@
       <c r="D100" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>234</v>
+      <c r="E100" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3098,7 @@
         <v>239</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>240</v>
@@ -3164,25 +3106,25 @@
       <c r="D101" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>241</v>
+      <c r="E101" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3132,7 @@
         <v>244</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>245</v>
@@ -3198,8 +3140,8 @@
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>241</v>
+      <c r="E103" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,7 +3149,7 @@
         <v>246</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>247</v>
@@ -3215,93 +3157,93 @@
       <c r="D104" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>248</v>
+      <c r="E104" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>253</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3251,7 @@
         <v>263</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>264</v>
@@ -3318,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,41 +3268,41 @@
         <v>265</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="B112" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="C112" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="B113" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>273</v>
@@ -3369,15 +3311,15 @@
         <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>270</v>
+      <c r="B114" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>275</v>
@@ -3386,15 +3328,15 @@
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>270</v>
+      <c r="B115" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>277</v>
@@ -3403,15 +3345,15 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>270</v>
+      <c r="B116" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>279</v>
@@ -3420,15 +3362,15 @@
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>270</v>
+      <c r="B117" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>281</v>
@@ -3437,15 +3379,15 @@
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>270</v>
+      <c r="B118" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>283</v>
@@ -3461,8 +3403,8 @@
       <c r="A119" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>270</v>
+      <c r="B119" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>285</v>
@@ -3478,8 +3420,8 @@
       <c r="A120" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>270</v>
+      <c r="B120" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>287</v>
@@ -3488,32 +3430,32 @@
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="D121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>270</v>
+      <c r="B122" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>292</v>
@@ -3522,15 +3464,15 @@
         <v>38</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>270</v>
+      <c r="B123" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>294</v>
@@ -3542,7 +3484,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="299">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -580,7 +580,7 @@
     <t xml:space="preserve">WUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Water use efficiency (gross photosynthesis over transpiration)</t>
+    <t xml:space="preserve">Daily water use efficiency (gross photosynthesis over transpiration) under no light, water or CO2 limitations and VPD = 1kPa </t>
   </si>
   <si>
     <r>
@@ -630,13 +630,19 @@
     <t xml:space="preserve">WUE_par</t>
   </si>
   <si>
-    <t xml:space="preserve">Exponent for gross photosynthesis decay depending on % PAR </t>
+    <t xml:space="preserve">Coefficient regulating the influence of % PAR on gross photosynthesis </t>
   </si>
   <si>
     <t xml:space="preserve">WUE_co2</t>
   </si>
   <si>
-    <t xml:space="preserve">Exponent for gross photosynthesis dependency on atmospheric CO2 concentration</t>
+    <t xml:space="preserve">Coefficient regulating the influence of atmospheric CO2 concentration on gross photosynthesis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUE_vpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient regulating the influence of vapor pressure deficit (VPD) on gross photosynthesis </t>
   </si>
   <si>
     <t xml:space="preserve">Gswmin</t>
@@ -1492,11 +1498,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2779,7 +2785,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>192</v>
       </c>
@@ -2792,25 +2798,23 @@
       <c r="D82" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,21 +2831,24 @@
         <v>38</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,11 +2864,8 @@
       <c r="D86" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>204</v>
       </c>
@@ -2875,21 +2879,24 @@
         <v>38</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,11 +2912,8 @@
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>211</v>
       </c>
@@ -2923,10 +2927,10 @@
         <v>38</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>213</v>
       </c>
@@ -2938,6 +2942,9 @@
       </c>
       <c r="D91" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,11 +2960,8 @@
       <c r="D92" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>217</v>
       </c>
@@ -2970,67 +2974,67 @@
       <c r="D93" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C95" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>230</v>
@@ -3039,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,7 +3051,7 @@
         <v>231</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>232</v>
@@ -3056,41 +3060,41 @@
         <v>38</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,7 +3102,7 @@
         <v>239</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>240</v>
@@ -3107,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +3119,7 @@
         <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>242</v>
@@ -3124,24 +3128,24 @@
         <v>38</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3153,7 @@
         <v>246</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>247</v>
@@ -3158,7 +3162,7 @@
         <v>38</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3170,7 @@
         <v>248</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>249</v>
@@ -3175,92 +3179,92 @@
         <v>38</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3272,7 @@
         <v>265</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>266</v>
@@ -3277,7 +3281,7 @@
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,41 +3289,41 @@
         <v>267</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="0" t="s">
+      <c r="B113" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
+      <c r="C113" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="D113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>275</v>
@@ -3328,15 +3332,15 @@
         <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>277</v>
@@ -3345,7 +3349,7 @@
         <v>38</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,7 +3357,7 @@
         <v>278</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>279</v>
@@ -3362,7 +3366,7 @@
         <v>38</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,7 +3374,7 @@
         <v>280</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>281</v>
@@ -3379,15 +3383,15 @@
         <v>38</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="0" t="s">
         <v>282</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>283</v>
@@ -3396,15 +3400,15 @@
         <v>38</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>285</v>
@@ -3421,7 +3425,7 @@
         <v>286</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>287</v>
@@ -3438,7 +3442,7 @@
         <v>288</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>289</v>
@@ -3447,24 +3451,24 @@
         <v>38</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3476,7 @@
         <v>293</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>294</v>
@@ -3481,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,7 +3493,7 @@
         <v>295</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>296</v>
@@ -3501,7 +3505,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">String</t>
   </si>
   <si>
-    <t xml:space="preserve">IFNcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes in the forest inventory, separated by '/'</t>
-  </si>
-  <si>
     <t xml:space="preserve">SpIndex</t>
   </si>
   <si>
-    <t xml:space="preserve">Species index  0,1,2,…</t>
+    <t xml:space="preserve">Internal species codification  (0,1,2,…)</t>
   </si>
   <si>
     <t xml:space="preserve">Integer</t>
@@ -227,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">c_fbt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_fbt</t>
   </si>
   <si>
     <t xml:space="preserve">a_cr</t>
@@ -1498,11 +1489,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -1552,29 +1543,29 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -1588,7 +1579,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>18</v>
@@ -1602,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>20</v>
@@ -1616,10 +1607,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -1627,10 +1618,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>25</v>
@@ -1644,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>27</v>
@@ -1658,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>29</v>
@@ -1672,44 +1663,47 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,33 +1711,33 @@
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,30 +1745,28 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1783,42 +1775,41 @@
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,27 +1817,27 @@
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,86 +1845,86 @@
         <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,13 +1932,13 @@
         <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,69 +1946,69 @@
         <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D35" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,72 +2016,78 @@
         <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>65</v>
+      <c r="B37" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>86</v>
@@ -2098,1153 +2095,1153 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>110</v>
+        <v>36</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>120</v>
+        <v>36</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>125</v>
+        <v>36</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>132</v>
+        <v>36</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>135</v>
+        <v>36</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>159</v>
+      <c r="A69" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C70" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>170</v>
+      <c r="A73" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>172</v>
+      <c r="A74" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>174</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C76" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C82" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>221</v>
+        <v>36</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>176</v>
+        <v>225</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>227</v>
+        <v>36</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>245</v>
+        <v>36</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>252</v>
+        <v>36</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>261</v>
@@ -3252,276 +3249,244 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>264</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>229</v>
+      <c r="A112" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>270</v>
+      <c r="A113" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C113" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="C114" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>276</v>
+      <c r="A115" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>280</v>
+      <c r="A117" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>284</v>
+      <c r="A119" s="0" t="s">
+        <v>285</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3533,8 +3498,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -556,16 +556,16 @@
     <t xml:space="preserve">Psi_Extract</t>
   </si>
   <si>
-    <t xml:space="preserve">Water potential corresponding to stomatal closure (aprox.)</t>
+    <t xml:space="preserve">Water potential corresponding to 50% reduction of transpiration</t>
   </si>
   <si>
     <t xml:space="preserve">MPa</t>
   </si>
   <si>
-    <t xml:space="preserve">Psi_Critic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water potential corresponding to 50% of stem cavitation (~ 50% PLC)</t>
+    <t xml:space="preserve">Exp_Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter of the Weibull function regulating transpiration reduction</t>
   </si>
   <si>
     <t xml:space="preserve">WUE</t>
@@ -1489,11 +1489,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2697,9 +2697,7 @@
       <c r="D76" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="303">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1300,6 +1300,27 @@
   </si>
   <si>
     <t xml:space="preserve">Recruitment depth corresponding to 95% of fine roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resprouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of resprouts per stem after fire disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespDist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of resprouts per stem after undefined disturbance (tipically dessication)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespClip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of resprouts per stem after clipping</t>
   </si>
 </sst>
 </file>
@@ -1489,11 +1510,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B112" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3481,6 +3502,57 @@
       </c>
       <c r="E123" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -1314,7 +1314,7 @@
     <t xml:space="preserve">RespDist</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of resprouts per stem after undefined disturbance (tipically dessication)</t>
+    <t xml:space="preserve">Number of resprouts per stem after undefined disturbance (typically desiccation)</t>
   </si>
   <si>
     <t xml:space="preserve">RespClip</t>
@@ -1511,10 +1511,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B112" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E126" activeCellId="0" sqref="E126"/>
+      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="306">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1227,7 +1227,7 @@
     <t xml:space="preserve">SeedProductionHeight</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment</t>
+    <t xml:space="preserve">Regeneration</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum height for seed production</t>
@@ -1260,13 +1260,13 @@
     <t xml:space="preserve">RecrTreeDBH</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment tree dbh</t>
+    <t xml:space="preserve">Recruitment tree dbh (typically 1 cm)</t>
   </si>
   <si>
     <t xml:space="preserve">RecrTreeHeight</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment tree height</t>
+    <t xml:space="preserve">Recruitment tree (sapling) height</t>
   </si>
   <si>
     <t xml:space="preserve">RecrShrubHeight</t>
@@ -1278,7 +1278,7 @@
     <t xml:space="preserve">RecrTreeDensity</t>
   </si>
   <si>
-    <t xml:space="preserve">Recruitment tree density</t>
+    <t xml:space="preserve">Recruitment tree (sapling) density</t>
   </si>
   <si>
     <t xml:space="preserve">ind/ha</t>
@@ -1305,9 +1305,6 @@
     <t xml:space="preserve">RespFire</t>
   </si>
   <si>
-    <t xml:space="preserve">Resprouting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of resprouts per stem after fire disturbance</t>
   </si>
   <si>
@@ -1321,6 +1318,18 @@
   </si>
   <si>
     <t xml:space="preserve">Number of resprouts per stem after clipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IngrowthTreeDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree density when reaching DBH of ingrowth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IngrowthTreeDBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree DBH of ingrowth (typically 7.5 cm)</t>
   </si>
 </sst>
 </file>
@@ -1510,11 +1519,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B112" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C125" activeCellId="0" sqref="C125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3508,11 +3517,11 @@
       <c r="A124" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>36</v>
@@ -3523,13 +3532,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>300</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>36</v>
@@ -3540,19 +3549,53 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="311">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -208,6 +208,12 @@
     <t xml:space="preserve">[0-1]</t>
   </si>
   <si>
+    <t xml:space="preserve">ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrub bark thickness</t>
+  </si>
+  <si>
     <t xml:space="preserve">a_fbt</t>
   </si>
   <si>
@@ -251,6 +257,15 @@
   </si>
   <si>
     <t xml:space="preserve">b_cw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression coefficient for bark thickness (mm) as function of DBH (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_ba</t>
   </si>
   <si>
     <t xml:space="preserve">LeafDuration</t>
@@ -1519,11 +1534,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -1906,24 +1921,27 @@
         <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C27" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>36</v>
@@ -1931,13 +1949,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>36</v>
@@ -1945,13 +1963,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>36</v>
@@ -1962,10 +1980,10 @@
         <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>36</v>
@@ -1973,13 +1991,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>36</v>
@@ -1987,13 +2005,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>36</v>
@@ -2001,13 +2019,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>36</v>
@@ -2015,13 +2033,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>36</v>
@@ -2029,13 +2047,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>36</v>
@@ -2046,10 +2064,10 @@
         <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>36</v>
@@ -2057,152 +2075,143 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="D37" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>98</v>
@@ -2210,268 +2219,268 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>107</v>
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>107</v>
+      <c r="E49" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>117</v>
+      <c r="E51" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>114</v>
+      <c r="E52" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>37</v>
+      <c r="E55" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>132</v>
+      <c r="E57" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>136</v>
+      <c r="E58" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>141</v>
+      <c r="E60" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>36</v>
@@ -2482,423 +2491,426 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="D64" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="D65" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="D66" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="D69" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="D70" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="4" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="B71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="D71" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="B73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="D73" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="D74" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="B75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="D75" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="B77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>183</v>
-      </c>
       <c r="D77" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="B80" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="D80" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="B82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="D82" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="D83" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="D84" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="B85" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="D85" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>36</v>
@@ -2906,47 +2918,47 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="0" t="s">
+      <c r="B89" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="D89" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>36</v>
@@ -2954,387 +2966,384 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="D92" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>218</v>
+      <c r="E92" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>235</v>
+      <c r="E98" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>235</v>
+      <c r="E99" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>235</v>
+      <c r="E100" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>252</v>
+      <c r="E105" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>255</v>
+      <c r="E106" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>258</v>
+      <c r="E107" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B111" s="2" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="B112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
+      <c r="B113" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>36</v>
@@ -3344,263 +3353,311 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="B115" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="B116" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
+      <c r="B117" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>282</v>
-      </c>
       <c r="D117" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="D118" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="0" t="s">
+      <c r="B120" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="D124" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>299</v>
-      </c>
       <c r="D125" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="D126" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="D127" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="0" t="s">
+      <c r="D128" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B129" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">[0-1]</t>
   </si>
   <si>
-    <t xml:space="preserve">ba</t>
+    <t xml:space="preserve">BTsh</t>
   </si>
   <si>
     <t xml:space="preserve">Shrub bark thickness</t>
@@ -259,13 +259,13 @@
     <t xml:space="preserve">b_cw</t>
   </si>
   <si>
-    <t xml:space="preserve">a_ba</t>
+    <t xml:space="preserve">a_bt</t>
   </si>
   <si>
     <t xml:space="preserve">Regression coefficient for bark thickness (mm) as function of DBH (cm)</t>
   </si>
   <si>
-    <t xml:space="preserve">b_ba</t>
+    <t xml:space="preserve">b_bt</t>
   </si>
   <si>
     <t xml:space="preserve">LeafDuration</t>
@@ -1534,11 +1534,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="318">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1237,6 +1237,83 @@
   </si>
   <si>
     <t xml:space="preserve">Year-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurvivalModelStep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time step in years of the empirical survival model depending on stand basal area (e.g. 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurvivalB0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Intercept of the logistic baseline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">survival</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> model depending on stand basal area</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SurvivalB1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Slope of the logistic baseline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">survival</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> model depending on stand basal area</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SeedProductionHeight</t>
@@ -1355,7 +1432,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1423,6 +1500,12 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1534,11 +1617,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3370,28 +3453,28 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>276</v>
+      <c r="B116" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>279</v>
@@ -3399,16 +3482,13 @@
       <c r="D116" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>276</v>
+      <c r="B117" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>281</v>
@@ -3416,110 +3496,107 @@
       <c r="D117" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E117" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E122" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,7 +3604,7 @@
         <v>295</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>296</v>
@@ -3536,7 +3613,7 @@
         <v>36</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3621,7 @@
         <v>297</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>298</v>
@@ -3553,7 +3630,7 @@
         <v>36</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,7 +3638,7 @@
         <v>299</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>300</v>
@@ -3570,97 +3647,145 @@
         <v>36</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -1251,6 +1251,111 @@
     <t xml:space="preserve">SurvivalB0</t>
   </si>
   <si>
+    <t xml:space="preserve">Intercept of the logistic baseline survival model depending on stand basal area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurvivalB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the logistic baseline survival model depending on stand basal area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeedProductionHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum height for seed production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProbRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of recruitment within the bioclimatic envelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinTempRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum average temperature of the coldest month for successful recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMoistureRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum value of the moisture index (annual precipitation over annual PET) for successful recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinFPARRecr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum percentage of PAR at the ground level for successful recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrTreeDBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment tree dbh (typically 1 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrTreeHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment tree (sapling) height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrShrubHeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment shrub height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrTreeDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment tree (sapling) density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrShrubCover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment shrub cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrZ50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment depth corresponding to 50% of fine roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecrZ95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment depth corresponding to 95% of fine roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of resprouting after fire disturbance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RespDist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Probability of resprouting</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1259,8 +1364,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Intercept of the logistic baseline </t>
-    </r>
+      <t xml:space="preserve"> after undefined disturbance (typically desiccation)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RespClip</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1268,7 +1378,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">survival</t>
+      <t xml:space="preserve">Probability of resprouting</t>
     </r>
     <r>
       <rPr>
@@ -1278,138 +1388,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> model depending on stand basal area</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SurvivalB1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Slope of the logistic baseline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">survival</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> model depending on stand basal area</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SeedProductionHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum height for seed production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProbRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of recruitment within the bioclimatic envelope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinTempRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum average temperature of the coldest month for successful recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMoistureRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum value of the moisture index (annual precipitation over annual PET) for successful recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinFPARRecr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum percentage of PAR at the ground level for successful recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrTreeDBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment tree dbh (typically 1 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrTreeHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment tree (sapling) height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrShrubHeight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment shrub height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrTreeDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment tree (sapling) density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind/ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrShrubCover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment shrub cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrZ50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment depth corresponding to 50% of fine roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrZ95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment depth corresponding to 95% of fine roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RespFire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of resprouts per stem after fire disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RespDist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of resprouts per stem after undefined disturbance (typically desiccation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RespClip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of resprouts per stem after clipping</t>
+      <t xml:space="preserve"> after clipping</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">IngrowthTreeDensity</t>
@@ -1563,7 +1543,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1596,6 +1576,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,11 +1601,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3715,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,14 +3709,14 @@
       <c r="B131" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="8" t="s">
         <v>311</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,14 +3726,14 @@
       <c r="B132" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="8" t="s">
         <v>313</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="325">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">Growth form: Either "Shrub", "Tree" or "Tree/Shrub"</t>
   </si>
   <si>
+    <t xml:space="preserve">Categorical</t>
+  </si>
+  <si>
     <t xml:space="preserve">LifeForm</t>
   </si>
   <si>
@@ -118,7 +121,10 @@
     <t xml:space="preserve">Leaf phenology type, either "oneflush-evergreen" (new leaves develop in spring-summer), "progressive-evergreen" (new leaves develop during any season), "winter-deciduous" (leaf senescence in autumn, new leaves in spring-summer) or "winter-semideciduous" (same as before, but abscission of senescent leaves occurs when new leaves are produced).</t>
   </si>
   <si>
-    <t xml:space="preserve">Categorical</t>
+    <t xml:space="preserve">DispersalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispersal type, either “wind-dispersed” or “animal-dispersed”</t>
   </si>
   <si>
     <t xml:space="preserve">Hmed</t>
@@ -1269,6 +1275,21 @@
     <t xml:space="preserve">Minimum height for seed production</t>
   </si>
   <si>
+    <t xml:space="preserve">SeedMass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed dry mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeedLongevity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seedbank average longevity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yr</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProbRecr</t>
   </si>
   <si>
@@ -1347,49 +1368,13 @@
     <t xml:space="preserve">RespDist</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Probability of resprouting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> after undefined disturbance (typically desiccation)</t>
-    </r>
+    <t xml:space="preserve">Probability of resprouting after undefined disturbance (typically desiccation)</t>
   </si>
   <si>
     <t xml:space="preserve">RespClip</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Probability of resprouting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> after clipping</t>
-    </r>
+    <t xml:space="preserve">Probability of resprouting after clipping</t>
   </si>
   <si>
     <t xml:space="preserve">IngrowthTreeDensity</t>
@@ -1412,7 +1397,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1481,12 +1466,6 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1543,7 +1522,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1576,10 +1555,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,11 +1576,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E132" activeCellId="0" sqref="E132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -1727,95 +1702,110 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>36</v>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,33 +1813,33 @@
         <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,28 +1847,30 @@
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1887,41 +1879,42 @@
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,27 +1922,27 @@
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,47 +1950,44 @@
         <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,55 +1995,58 @@
         <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,83 +2054,83 @@
         <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,27 +2138,27 @@
         <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,81 +2166,78 @@
         <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,16 +2245,16 @@
         <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,33 +2262,33 @@
         <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>97</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,33 +2296,33 @@
         <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,50 +2330,50 @@
         <v>106</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="D49" s="0" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="D50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,16 +2381,16 @@
         <v>115</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,50 +2398,50 @@
         <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="D54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,33 +2449,33 @@
         <v>125</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>127</v>
+        <v>38</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,16 +2483,16 @@
         <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,67 +2500,67 @@
         <v>132</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="D61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,33 +2568,33 @@
         <v>144</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>145</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,16 +2602,16 @@
         <v>149</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>150</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,16 +2619,16 @@
         <v>151</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>152</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,16 +2636,16 @@
         <v>153</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,16 +2653,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,84 +2670,84 @@
         <v>157</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="D69" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="D72" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,16 +2755,16 @@
         <v>172</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>173</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,45 +2772,47 @@
         <v>174</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="D76" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E77" s="4"/>
     </row>
@@ -2829,77 +2821,77 @@
         <v>182</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>183</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>188</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E82" s="4"/>
     </row>
@@ -2908,48 +2900,46 @@
         <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>197</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,30 +2947,33 @@
         <v>201</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>202</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,47 +2981,47 @@
         <v>206</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>207</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>209</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,47 +3029,47 @@
         <v>213</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>214</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>216</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>218</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,101 +3077,98 @@
         <v>219</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>220</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="D98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>234</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,50 +3176,50 @@
         <v>235</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>236</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,16 +3227,16 @@
         <v>243</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>244</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,33 +3244,33 @@
         <v>245</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>246</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,16 +3278,16 @@
         <v>250</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>251</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,101 +3295,101 @@
         <v>252</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>253</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>268</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,16 +3397,16 @@
         <v>269</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>270</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,47 +3414,50 @@
         <v>271</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="D114" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,47 +3465,44 @@
         <v>280</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>281</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="D118" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>286</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,16 +3510,16 @@
         <v>287</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>288</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,101 +3527,101 @@
         <v>289</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>290</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>291</v>
+      <c r="A122" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
-        <v>293</v>
+      <c r="A123" s="0" t="s">
+        <v>294</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>299</v>
+      <c r="A126" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,16 +3629,16 @@
         <v>302</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>303</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,16 +3646,16 @@
         <v>304</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,106 +3663,154 @@
         <v>306</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>307</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>311</v>
+        <v>285</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>312</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>313</v>
+        <v>285</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>314</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>317</v>
+        <v>285</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="331">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1281,6 +1281,9 @@
     <t xml:space="preserve">Seed dry mass</t>
   </si>
   <si>
+    <t xml:space="preserve">mg</t>
+  </si>
+  <si>
     <t xml:space="preserve">SeedLongevity</t>
   </si>
   <si>
@@ -1288,6 +1291,21 @@
   </si>
   <si>
     <t xml:space="preserve">yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DispersalDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance parameter for dispersal kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DispersalShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape parameter for dispersal kernel</t>
   </si>
   <si>
     <t xml:space="preserve">ProbRecr</t>
@@ -1574,13 +1592,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E120" activeCellId="0" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3519,137 +3537,134 @@
         <v>38</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>292</v>
+      <c r="A122" s="0" t="s">
+        <v>293</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>296</v>
+      <c r="A124" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6" t="s">
-        <v>300</v>
+      <c r="A126" s="0" t="s">
+        <v>302</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>304</v>
+      <c r="A128" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>38</v>
@@ -3660,115 +3675,115 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>308</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>285</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>318</v>
+      <c r="C134" s="0" t="s">
+        <v>320</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>320</v>
+      <c r="C135" s="0" t="s">
+        <v>322</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>38</v>
@@ -3779,40 +3794,72 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>322</v>
+      <c r="C136" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>324</v>
+      <c r="C137" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -826,16 +826,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VCleaf_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the leaf vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCleaf_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the leaf vulnerability curve</t>
+    <t xml:space="preserve">VCleaf_P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12% of maximum conductance of the leaf vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCleaf_P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of maximum conductance of the leaf vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCleaf_P88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88% of maximum conductance of the leaf vulnerability curve</t>
   </si>
   <si>
     <t xml:space="preserve">Kmax_stemxylem</t>
@@ -930,16 +936,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VCstem_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the stem xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCstem_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the stem xylem vulnerability curve</t>
+    <t xml:space="preserve">VCstem_P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12% of maximum conductance of the stem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of maximum conductance of the stem vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCstem_P88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88% of maximum conductance of the stem vulnerability curve</t>
   </si>
   <si>
     <t xml:space="preserve">Kmax_rootxylem</t>
@@ -948,16 +960,22 @@
     <t xml:space="preserve">Maximum sapwood-specific hydraulic conductivity of root xylem</t>
   </si>
   <si>
-    <t xml:space="preserve">VCroot_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter c of the root xylem vulnerability curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCroot_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter d of the root xylem vulnerability curve</t>
+    <t xml:space="preserve">VCroot_P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12% of maximum conductance of the root vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of maximum conductance of the root vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_P88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88% of maximum conductance of the root vulnerability curve</t>
   </si>
   <si>
     <t xml:space="preserve">Vmax298</t>
@@ -1592,10 +1610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E120" activeCellId="0" sqref="E120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3007,6 +3025,9 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="E88" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
@@ -3022,10 +3043,10 @@
         <v>38</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
@@ -3039,21 +3060,24 @@
         <v>38</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C91" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3094,10 @@
         <v>38</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>217</v>
       </c>
@@ -3087,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,8 +3127,11 @@
       <c r="D94" s="0" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>221</v>
       </c>
@@ -3118,10 +3145,10 @@
         <v>38</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
@@ -3134,291 +3161,291 @@
       <c r="D96" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>225</v>
+      <c r="E96" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>228</v>
+      <c r="E97" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="D99" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="D100" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>231</v>
+      <c r="E100" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>241</v>
-      </c>
       <c r="D102" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>242</v>
+      <c r="E102" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>242</v>
+      <c r="E103" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>253</v>
-      </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>259</v>
+      <c r="E109" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>262</v>
+      <c r="E110" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>265</v>
+      <c r="E111" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
@@ -3429,197 +3456,200 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="D115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
+      <c r="B119" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C119" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="0" t="s">
+      <c r="B120" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" s="0" t="s">
+      <c r="B124" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
+      <c r="D124" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,7 +3657,7 @@
         <v>302</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>303</v>
@@ -3635,16 +3665,13 @@
       <c r="D126" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>305</v>
@@ -3653,15 +3680,15 @@
         <v>38</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="0" t="s">
         <v>306</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>307</v>
@@ -3670,7 +3697,7 @@
         <v>38</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,7 +3705,7 @@
         <v>308</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>309</v>
@@ -3687,7 +3714,7 @@
         <v>38</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,7 +3722,7 @@
         <v>310</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>311</v>
@@ -3704,15 +3731,15 @@
         <v>38</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>313</v>
@@ -3721,58 +3748,58 @@
         <v>38</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="D132" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="D133" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" s="0" t="s">
+      <c r="D134" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,7 +3807,7 @@
         <v>321</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>322</v>
@@ -3789,7 +3816,7 @@
         <v>38</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,16 +3824,16 @@
         <v>323</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>324</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,16 +3841,16 @@
         <v>325</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>326</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +3858,7 @@
         <v>327</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>328</v>
@@ -3840,7 +3867,7 @@
         <v>38</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,18 +3875,71 @@
         <v>329</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C139" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>330</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="352">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -660,7 +660,7 @@
     <t xml:space="preserve">Gswmin</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum stomatal conductance to water vapour</t>
+    <t xml:space="preserve">Minimum leaf conductance (cuticular+incomplete closure) at 20C</t>
   </si>
   <si>
     <r>
@@ -732,6 +732,33 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum stomatal conductance to water vapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs_Toptim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature corresponding to maximal stomatal conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs_Tsens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomatal sensitivity to temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs_P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water potential causing 50% reduction in stomatal conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of decrease in stomatal conductance at Gs_P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%/MPa</t>
   </si>
   <si>
     <t xml:space="preserve">VCleaf_kmax</t>
@@ -844,6 +871,12 @@
     <t xml:space="preserve">88% of maximum conductance of the leaf vulnerability curve</t>
   </si>
   <si>
+    <t xml:space="preserve">VCleaf_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the rate of leaf embolism spread at VCleaf_P50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kmax_stemxylem</t>
   </si>
   <si>
@@ -954,6 +987,12 @@
     <t xml:space="preserve">88% of maximum conductance of the stem vulnerability curve</t>
   </si>
   <si>
+    <t xml:space="preserve">VCstem_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the rate of stem embolism spread at VCleaf_P50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kmax_rootxylem</t>
   </si>
   <si>
@@ -976,6 +1015,12 @@
   </si>
   <si>
     <t xml:space="preserve">88% of maximum conductance of the root vulnerability curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCroot_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the rate of root embolism spread at VCleaf_P50</t>
   </si>
   <si>
     <t xml:space="preserve">Vmax298</t>
@@ -1558,7 +1603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,6 +1632,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1612,8 +1661,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2961,14 +3010,14 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="0" t="s">
@@ -2995,7 +3044,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
@@ -3009,58 +3058,56 @@
         <v>38</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C90" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +3141,7 @@
         <v>38</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +3158,7 @@
         <v>38</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,10 +3175,10 @@
         <v>38</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>221</v>
       </c>
@@ -3145,10 +3192,10 @@
         <v>38</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
@@ -3162,58 +3209,58 @@
         <v>38</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>231</v>
+      <c r="E99" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,526 +3276,529 @@
       <c r="D100" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>237</v>
+      <c r="E101" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>237</v>
+      <c r="E102" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B103" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="D103" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>237</v>
+      <c r="E103" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>245</v>
+      <c r="E104" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>248</v>
+      <c r="E107" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>255</v>
+      <c r="E108" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>255</v>
+      <c r="E109" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>255</v>
+      <c r="E110" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>268</v>
+      <c r="E113" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E114" s="0" t="s">
-        <v>271</v>
+      <c r="E114" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>274</v>
+      <c r="E115" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>274</v>
+      <c r="E116" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>63</v>
+      <c r="E117" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>282</v>
+      <c r="E118" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="0" t="s">
+      <c r="B124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C130" s="0" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
+      <c r="B131" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,7 +3806,7 @@
         <v>314</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>315</v>
@@ -3765,41 +3815,38 @@
         <v>38</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E133" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>318</v>
+      <c r="A134" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3854,7 @@
         <v>321</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>322</v>
@@ -3816,7 +3863,7 @@
         <v>38</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,7 +3871,7 @@
         <v>323</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>324</v>
@@ -3833,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3841,7 +3888,7 @@
         <v>325</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>326</v>
@@ -3850,15 +3897,15 @@
         <v>38</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>328</v>
@@ -3867,7 +3914,7 @@
         <v>38</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,16 +3922,16 @@
         <v>329</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>330</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,16 +3939,16 @@
         <v>331</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C140" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>332</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,7 +3956,7 @@
         <v>333</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>334</v>
@@ -3918,24 +3965,143 @@
         <v>38</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>39</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="354">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t xml:space="preserve">Absorbance coefficient for SWR (alphaPAR is alphaSWR*1.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kDIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction coefficient for direct light</t>
   </si>
   <si>
     <t xml:space="preserve">kPAR</t>
@@ -1661,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2883,30 +2889,32 @@
         <v>38</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="D77" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>183</v>
@@ -2921,7 +2929,7 @@
         <v>184</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>185</v>
@@ -2929,31 +2937,31 @@
       <c r="D79" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="D80" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>190</v>
@@ -2961,31 +2969,31 @@
       <c r="D81" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>195</v>
@@ -3000,7 +3008,7 @@
         <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>197</v>
@@ -3015,41 +3023,39 @@
         <v>198</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>204</v>
@@ -3058,7 +3064,7 @@
         <v>38</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,7 +3072,7 @@
         <v>205</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>206</v>
@@ -3074,14 +3080,16 @@
       <c r="D88" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>208</v>
@@ -3089,16 +3097,14 @@
       <c r="D89" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>210</v>
@@ -3107,41 +3113,41 @@
         <v>38</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="4" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3155,7 @@
         <v>217</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>218</v>
@@ -3158,7 +3164,7 @@
         <v>38</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3172,7 @@
         <v>219</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>220</v>
@@ -3175,7 +3181,7 @@
         <v>38</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3183,7 +3189,7 @@
         <v>221</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>222</v>
@@ -3192,15 +3198,15 @@
         <v>38</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>224</v>
@@ -3209,24 +3215,24 @@
         <v>38</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,7 +3240,7 @@
         <v>228</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>229</v>
@@ -3243,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3257,7 @@
         <v>230</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>231</v>
@@ -3260,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3274,7 @@
         <v>232</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>233</v>
@@ -3277,15 +3283,15 @@
         <v>38</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>235</v>
@@ -3294,15 +3300,15 @@
         <v>38</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>237</v>
@@ -3311,7 +3317,7 @@
         <v>38</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,7 +3325,7 @@
         <v>238</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>239</v>
@@ -3328,7 +3334,7 @@
         <v>38</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3342,7 @@
         <v>240</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>241</v>
@@ -3345,7 +3351,7 @@
         <v>38</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,7 +3359,7 @@
         <v>242</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>243</v>
@@ -3362,15 +3368,15 @@
         <v>38</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>245</v>
@@ -3378,67 +3384,67 @@
       <c r="D106" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="D109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>257</v>
@@ -3447,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,7 +3461,7 @@
         <v>258</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>259</v>
@@ -3464,41 +3470,41 @@
         <v>38</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="0" t="s">
+      <c r="D113" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +3512,7 @@
         <v>266</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>267</v>
@@ -3515,7 +3521,7 @@
         <v>38</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3529,7 @@
         <v>268</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>269</v>
@@ -3532,24 +3538,24 @@
         <v>38</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3563,7 @@
         <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>274</v>
@@ -3566,7 +3572,7 @@
         <v>38</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3580,7 @@
         <v>275</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>276</v>
@@ -3583,92 +3589,92 @@
         <v>38</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="D121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,7 +3682,7 @@
         <v>292</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>293</v>
@@ -3685,7 +3691,7 @@
         <v>38</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,47 +3699,50 @@
         <v>294</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>296</v>
-      </c>
       <c r="D125" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>299</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3750,7 @@
         <v>303</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>304</v>
@@ -3751,28 +3760,25 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="B130" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>309</v>
@@ -3781,63 +3787,66 @@
         <v>38</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C132" s="0" t="s">
+      <c r="D132" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C133" s="0" t="s">
+      <c r="D133" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D133" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="0" t="s">
         <v>319</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>320</v>
@@ -3845,16 +3854,13 @@
       <c r="D134" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E134" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>322</v>
@@ -3863,7 +3869,7 @@
         <v>38</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,7 +3877,7 @@
         <v>323</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>324</v>
@@ -3880,7 +3886,7 @@
         <v>38</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3894,7 @@
         <v>325</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>326</v>
@@ -3897,15 +3903,15 @@
         <v>38</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="0" t="s">
         <v>327</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>328</v>
@@ -3914,15 +3920,15 @@
         <v>38</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>330</v>
@@ -3939,7 +3945,7 @@
         <v>331</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>332</v>
@@ -3956,7 +3962,7 @@
         <v>333</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>334</v>
@@ -3965,24 +3971,24 @@
         <v>38</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>335</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C142" s="0" t="s">
+      <c r="D142" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +3996,7 @@
         <v>338</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>339</v>
@@ -3999,7 +4005,7 @@
         <v>38</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +4013,7 @@
         <v>340</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>341</v>
@@ -4024,7 +4030,7 @@
         <v>342</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>343</v>
@@ -4033,7 +4039,7 @@
         <v>38</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,9 +4047,9 @@
         <v>344</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C146" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>345</v>
       </c>
       <c r="D146" s="0" t="s">
@@ -4058,7 +4064,7 @@
         <v>346</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>347</v>
@@ -4075,16 +4081,16 @@
         <v>348</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>349</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,7 +4098,7 @@
         <v>350</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>351</v>
@@ -4101,10 +4107,26 @@
         <v>38</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="358">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Identity</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxon names (species binomials or genus)</t>
+    <t xml:space="preserve">Plant names (species binomials, genus or other) used in vegetation data</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -58,25 +58,37 @@
     <t xml:space="preserve">Integer</t>
   </si>
   <si>
+    <t xml:space="preserve">AcceptedName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomic identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted scientific name of a taxon (genus, species, subspecies or variety) used for parameterization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomic species of accepted name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genus</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxonomic identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomic genus</t>
+    <t xml:space="preserve">Taxonomic genus of accepted name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomic family of accepted name</t>
   </si>
   <si>
     <t xml:space="preserve">Order</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxonomical order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomical family</t>
+    <t xml:space="preserve">Taxonomic order of accepted name</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -1667,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,7 +1737,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1742,7 +1754,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1753,10 +1765,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1785,50 +1797,44 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1842,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>30</v>
@@ -1845,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>32</v>
@@ -1862,15 +1868,15 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>34</v>
@@ -1879,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,198 +1893,201 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>38</v>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,44 +2095,47 @@
         <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,238 +2143,232 @@
         <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D35" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,135 +2376,135 @@
         <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="D47" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="D49" s="0" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,101 +2512,101 @@
         <v>119</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>120</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="D55" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>124</v>
+        <v>42</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="D58" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,118 +2614,118 @@
         <v>134</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>135</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>136</v>
+        <v>42</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="D61" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="D65" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,16 +2733,16 @@
         <v>153</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,16 +2750,16 @@
         <v>155</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>156</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,16 +2767,16 @@
         <v>157</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>158</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,101 +2784,101 @@
         <v>159</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="D70" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="D73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="B74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="D74" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="D75" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,16 +2886,16 @@
         <v>176</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>177</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,139 +2903,143 @@
         <v>178</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>179</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="D78" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="B79" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="D79" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>187</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E85" s="4"/>
     </row>
@@ -3038,82 +3048,80 @@
         <v>200</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>201</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>204</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="0" t="s">
+      <c r="D88" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>208</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>210</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,67 +3129,65 @@
         <v>211</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>212</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="D92" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="0" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,16 +3195,16 @@
         <v>221</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,67 +3212,67 @@
         <v>223</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>224</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>226</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,16 +3280,16 @@
         <v>232</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>233</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,33 +3297,33 @@
         <v>234</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>235</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>237</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,33 +3331,33 @@
         <v>238</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>239</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>241</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,16 +3365,16 @@
         <v>242</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>243</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,169 +3382,169 @@
         <v>244</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>245</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>248</v>
+        <v>42</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="8" t="s">
+      <c r="B109" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="D109" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>261</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="D113" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>265</v>
+        <v>42</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,50 +3552,50 @@
         <v>270</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>271</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="D117" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,118 +3603,118 @@
         <v>277</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>278</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>281</v>
-      </c>
       <c r="D120" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>282</v>
+        <v>42</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>295</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,160 +3722,163 @@
         <v>296</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="D126" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>302</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="B131" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="0" t="s">
+      <c r="B132" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="C132" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="D132" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>315</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="s">
+      <c r="B135" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C135" s="0" t="s">
+      <c r="D135" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,33 +3886,30 @@
         <v>323</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>324</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="6" t="s">
         <v>325</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>326</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,33 +3917,33 @@
         <v>327</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>328</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="0" t="s">
         <v>329</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>330</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,33 +3951,33 @@
         <v>331</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>332</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="6" t="s">
         <v>333</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>334</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,50 +3985,50 @@
         <v>335</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>336</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>339</v>
-      </c>
       <c r="D143" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C144" s="0" t="s">
+      <c r="D144" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,16 +4036,16 @@
         <v>342</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>343</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,16 +4053,16 @@
         <v>344</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>345</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,16 +4070,16 @@
         <v>346</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C147" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="0" t="s">
         <v>347</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,16 +4087,16 @@
         <v>348</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C148" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="0" t="s">
         <v>349</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,16 +4104,16 @@
         <v>350</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C149" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,16 +4121,50 @@
         <v>352</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C150" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>353</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>337</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="359">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -538,12 +538,21 @@
     <t xml:space="preserve">Percent of lignin+cutin over dry weight in leaves</t>
   </si>
   <si>
+    <t xml:space="preserve">LeafAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction/Interception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angle between the leaf plane and the horizontal plane (i.e. leaf zenith angle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
     <t xml:space="preserve">gammaSWR</t>
   </si>
   <si>
-    <t xml:space="preserve">Extinction/Interception</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reflectance (albedo) coefficient for SWR (gammaPAR is 0.8*gammaSWR)</t>
   </si>
   <si>
@@ -554,12 +563,6 @@
   </si>
   <si>
     <t xml:space="preserve">Absorbance coefficient for SWR (alphaPAR is alphaSWR*1.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kDIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinction coefficient for direct light</t>
   </si>
   <si>
     <t xml:space="preserve">kPAR</t>
@@ -1679,8 +1682,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2865,7 +2868,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -2882,7 +2885,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -2895,69 +2898,69 @@
         <v>42</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>178</v>
+      <c r="A77" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>180</v>
+      <c r="A78" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>182</v>
+      <c r="A79" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>42</v>
@@ -2966,13 +2969,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>42</v>
@@ -2981,30 +2984,30 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>42</v>
@@ -3013,30 +3016,30 @@
     </row>
     <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>42</v>
@@ -3045,13 +3048,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>42</v>
@@ -3060,13 +3063,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>42</v>
@@ -3075,47 +3078,47 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>42</v>
@@ -3126,13 +3129,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>42</v>
@@ -3141,608 +3144,608 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>42</v>
@@ -3753,47 +3756,47 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>42</v>
@@ -3801,13 +3804,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>42</v>
@@ -3815,13 +3818,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>42</v>
@@ -3832,64 +3835,64 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>42</v>
@@ -3897,13 +3900,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>42</v>
@@ -3914,13 +3917,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>42</v>
@@ -3931,30 +3934,30 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>42</v>
@@ -3965,13 +3968,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>42</v>
@@ -3982,13 +3985,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>42</v>
@@ -3999,13 +4002,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>42</v>
@@ -4016,30 +4019,30 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>42</v>
@@ -4050,13 +4053,13 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>42</v>
@@ -4067,13 +4070,13 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>42</v>
@@ -4084,13 +4087,13 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>42</v>
@@ -4101,13 +4104,13 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>42</v>
@@ -4118,13 +4121,13 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>42</v>
@@ -4135,13 +4138,13 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>42</v>
@@ -4152,19 +4155,19 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="363">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t xml:space="preserve">degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeafAngleSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation of the leaf angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClumpingIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canopy clumping index</t>
   </si>
   <si>
     <t xml:space="preserve">gammaSWR</t>
@@ -1680,10 +1692,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2898,41 +2910,41 @@
         <v>42</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,45 +2961,49 @@
         <v>42</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="D80" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>192</v>
@@ -2995,78 +3011,78 @@
       <c r="D82" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>204</v>
@@ -3081,58 +3097,54 @@
         <v>205</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>206</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="D89" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>213</v>
@@ -3140,14 +3152,16 @@
       <c r="D91" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>215</v>
@@ -3156,7 +3170,7 @@
         <v>42</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3178,7 @@
         <v>216</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>217</v>
@@ -3172,59 +3186,57 @@
       <c r="D93" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>220</v>
-      </c>
       <c r="D94" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3244,7 @@
         <v>226</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>227</v>
@@ -3241,7 +3253,7 @@
         <v>42</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3261,7 @@
         <v>228</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>229</v>
@@ -3258,15 +3270,15 @@
         <v>42</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>231</v>
@@ -3275,41 +3287,41 @@
         <v>42</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3329,7 @@
         <v>237</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>238</v>
@@ -3326,7 +3338,7 @@
         <v>42</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3346,7 @@
         <v>239</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>240</v>
@@ -3343,15 +3355,15 @@
         <v>42</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>242</v>
@@ -3360,7 +3372,7 @@
         <v>42</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,7 +3380,7 @@
         <v>243</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>244</v>
@@ -3377,15 +3389,15 @@
         <v>42</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>246</v>
@@ -3394,7 +3406,7 @@
         <v>42</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,7 +3414,7 @@
         <v>247</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>248</v>
@@ -3411,7 +3423,7 @@
         <v>42</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,7 +3431,7 @@
         <v>249</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>250</v>
@@ -3428,15 +3440,15 @@
         <v>42</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>252</v>
@@ -3444,84 +3456,84 @@
       <c r="D109" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>253</v>
+      <c r="E109" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E110" s="8" t="s">
+      <c r="B111" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="D111" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>266</v>
@@ -3530,58 +3542,58 @@
         <v>42</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="D115" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>270</v>
+      <c r="E115" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +3601,7 @@
         <v>275</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>276</v>
@@ -3598,41 +3610,41 @@
         <v>42</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="D119" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3652,7 @@
         <v>282</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>283</v>
@@ -3649,109 +3661,109 @@
         <v>42</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="D122" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>287</v>
+      <c r="E122" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,160 +3771,163 @@
         <v>301</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>303</v>
-      </c>
       <c r="D128" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>307</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="D132" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E132" s="0" t="s">
+      <c r="B133" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E134" s="0" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C136" s="0" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
+      <c r="B137" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137" s="0" t="s">
+      <c r="D137" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3935,7 @@
         <v>328</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>329</v>
@@ -3928,16 +3943,13 @@
       <c r="D138" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="6" t="s">
         <v>330</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>331</v>
@@ -3946,7 +3958,7 @@
         <v>42</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,7 +3966,7 @@
         <v>332</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>333</v>
@@ -3963,15 +3975,15 @@
         <v>42</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="0" t="s">
         <v>334</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>335</v>
@@ -3980,7 +3992,7 @@
         <v>42</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,7 +4000,7 @@
         <v>336</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>337</v>
@@ -3997,15 +4009,15 @@
         <v>42</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="6" t="s">
         <v>338</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>339</v>
@@ -4022,7 +4034,7 @@
         <v>340</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>341</v>
@@ -4031,41 +4043,41 @@
         <v>42</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>342</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="D145" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" s="0" t="s">
+      <c r="D146" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,7 +4085,7 @@
         <v>347</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>348</v>
@@ -4082,7 +4094,7 @@
         <v>42</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4090,7 +4102,7 @@
         <v>349</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>350</v>
@@ -4099,7 +4111,7 @@
         <v>42</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,16 +4119,16 @@
         <v>351</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C149" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>352</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,9 +4136,9 @@
         <v>353</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C150" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="0" t="s">
         <v>354</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -4141,16 +4153,16 @@
         <v>355</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C151" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>356</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,19 +4170,52 @@
         <v>357</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C152" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>358</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="364">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -1507,9 +1510,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1636,7 +1640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1654,6 +1658,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,10 +1700,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F154" activeCellId="0" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,2498 +1730,2960 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
+      <c r="F11" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
+      <c r="F17" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>48</v>
+      <c r="F19" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4"/>
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4"/>
+      <c r="F21" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F22" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F23" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F24" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F25" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F26" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F31" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F32" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F33" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F34" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F35" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F36" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F37" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F38" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F39" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F40" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F41" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D42" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F42" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="B43" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C43" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="F43" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F44" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F45" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>97</v>
+      <c r="F46" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F47" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F48" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F49" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>109</v>
+      <c r="F51" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="B52" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="C52" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="F52" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F53" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>118</v>
+      <c r="F54" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F55" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F56" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="F57" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="F58" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>113</v>
+        <v>132</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F59" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>133</v>
+      <c r="F60" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F61" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>139</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="F62" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>113</v>
+        <v>142</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="F63" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="B64" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="C64" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F64" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>147</v>
+      <c r="F65" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="F66" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>152</v>
+      <c r="F67" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F68" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="F69" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="F70" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F71" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="B72" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="C72" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="F72" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="F73" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F74" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="B75" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C75" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="F75" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>175</v>
+      <c r="F76" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F77" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F78" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>182</v>
+      <c r="F79" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>173</v>
+        <v>186</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F80" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>173</v>
+        <v>188</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="F81" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="5" t="s">
         <v>191</v>
       </c>
+      <c r="B82" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="C82" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E82" s="4"/>
+      <c r="F82" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E83" s="4"/>
+      <c r="F83" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F84" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>191</v>
+        <v>199</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E85" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="F86" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E87" s="4"/>
+      <c r="F87" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>191</v>
+        <v>206</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E88" s="4"/>
+      <c r="F88" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>191</v>
+        <v>208</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E89" s="4"/>
+      <c r="F89" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="B90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="D90" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="F90" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>211</v>
+      <c r="F91" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>191</v>
+        <v>215</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F92" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>191</v>
+        <v>217</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E93" s="4"/>
+      <c r="F93" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>191</v>
+        <v>219</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F94" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="F95" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>191</v>
+        <v>224</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="F96" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>191</v>
+        <v>227</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F97" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>191</v>
+        <v>229</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F98" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>191</v>
+        <v>231</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F99" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>191</v>
+        <v>233</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="F100" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="F101" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>191</v>
+        <v>238</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F102" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>191</v>
+        <v>240</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F103" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>191</v>
+        <v>242</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F104" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>191</v>
+        <v>244</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="F105" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>191</v>
+        <v>246</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="F106" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>191</v>
+        <v>248</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F107" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>191</v>
+        <v>250</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F108" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>191</v>
+        <v>252</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="F109" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>191</v>
+        <v>254</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+      <c r="F110" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>191</v>
+        <v>256</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>257</v>
+        <v>43</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>191</v>
+        <v>259</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>260</v>
+        <v>43</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>191</v>
+        <v>262</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="F113" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>263</v>
+      <c r="F114" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="F115" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="F116" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>274</v>
+        <v>43</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F117" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>274</v>
+      <c r="F118" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>274</v>
+        <v>43</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>281</v>
+        <v>43</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>281</v>
+      <c r="F121" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>281</v>
+        <v>43</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F122" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>288</v>
+        <v>43</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F123" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="F124" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="F125" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="F126" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="F127" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>300</v>
+      <c r="F128" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F129" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="F130" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="F131" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F132" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F133" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="A134" s="7" t="s">
         <v>317</v>
       </c>
+      <c r="B134" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="C134" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F134" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
+      </c>
+      <c r="F135" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="F136" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>317</v>
+        <v>326</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="F137" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>317</v>
+        <v>329</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F138" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>317</v>
+      <c r="A139" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F139" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F140" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>317</v>
+        <v>335</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="F141" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>317</v>
+        <v>337</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F142" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>317</v>
+      <c r="A143" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F143" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>317</v>
+        <v>341</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F144" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>317</v>
+        <v>343</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F145" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>317</v>
+        <v>345</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="F146" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>317</v>
+        <v>348</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F147" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>317</v>
+        <v>350</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F148" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>317</v>
+        <v>352</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F149" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>317</v>
+        <v>354</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F150" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C151" s="6" t="s">
         <v>356</v>
       </c>
+      <c r="B151" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="D151" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F151" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C152" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="B152" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="D152" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F152" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>317</v>
+        <v>360</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F153" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>317</v>
+        <v>362</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="F154" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -1510,10 +1510,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1661,7 +1660,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1702,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F154" activeCellId="0" sqref="F154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1747,7 +1746,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1764,7 +1763,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="b">
+      <c r="F3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,7 +1780,7 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="b">
+      <c r="F4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,8 +1797,8 @@
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="b">
-        <v>1</v>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1814,7 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="b">
+      <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,7 +1831,7 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="b">
+      <c r="F7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,7 +1848,7 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="b">
+      <c r="F8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,7 +1865,7 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="b">
+      <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1886,7 +1885,7 @@
       <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="b">
+      <c r="F10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,7 +1905,7 @@
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="b">
+      <c r="F11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,7 +1925,7 @@
       <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="b">
+      <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1945,7 @@
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5" t="b">
+      <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1965,7 @@
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="5" t="b">
+      <c r="F14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,7 +1985,7 @@
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="5" t="b">
+      <c r="F15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,7 +2005,7 @@
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5" t="b">
+      <c r="F16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,7 +2025,7 @@
       <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="b">
+      <c r="F17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,7 +2045,7 @@
       <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="5" t="b">
+      <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2066,7 +2065,7 @@
       <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="5" t="b">
+      <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,7 +2083,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="5" t="b">
+      <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2101,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="5" t="b">
+      <c r="F21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2118,7 @@
       <c r="D22" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="5" t="b">
+      <c r="F22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,7 +2135,7 @@
       <c r="D23" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="5" t="b">
+      <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,7 +2152,7 @@
       <c r="D24" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="5" t="b">
+      <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2170,7 +2169,7 @@
       <c r="D25" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="5" t="b">
+      <c r="F25" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2187,7 +2186,7 @@
       <c r="D26" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="5" t="b">
+      <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2204,7 +2203,7 @@
       <c r="D27" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="5" t="b">
+      <c r="F27" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2224,7 +2223,7 @@
       <c r="E28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5" t="b">
+      <c r="F28" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2244,7 +2243,7 @@
       <c r="E29" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="b">
+      <c r="F29" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2261,7 +2260,7 @@
       <c r="D30" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="5" t="b">
+      <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2278,7 +2277,7 @@
       <c r="D31" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5" t="b">
+      <c r="F31" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2294,7 @@
       <c r="D32" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="5" t="b">
+      <c r="F32" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2312,7 +2311,7 @@
       <c r="D33" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="5" t="b">
+      <c r="F33" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2329,7 +2328,7 @@
       <c r="D34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="5" t="b">
+      <c r="F34" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2346,7 +2345,7 @@
       <c r="D35" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="5" t="b">
+      <c r="F35" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,7 +2362,7 @@
       <c r="D36" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="5" t="b">
+      <c r="F36" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2380,7 +2379,7 @@
       <c r="D37" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="5" t="b">
+      <c r="F37" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2397,7 +2396,7 @@
       <c r="D38" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="5" t="b">
+      <c r="F38" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2413,7 @@
       <c r="D39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="5" t="b">
+      <c r="F39" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2431,7 +2430,7 @@
       <c r="D40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="5" t="b">
+      <c r="F40" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,7 +2447,7 @@
       <c r="D41" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="5" t="b">
+      <c r="F41" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,7 +2464,7 @@
       <c r="D42" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="5" t="b">
+      <c r="F42" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2484,7 @@
       <c r="E43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="5" t="b">
+      <c r="F43" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2505,7 +2504,7 @@
       <c r="E44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="5" t="b">
+      <c r="F44" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2525,7 +2524,7 @@
       <c r="E45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="5" t="b">
+      <c r="F45" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2545,7 +2544,7 @@
       <c r="E46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="5" t="b">
+      <c r="F46" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2565,7 +2564,7 @@
       <c r="E47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="5" t="b">
+      <c r="F47" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2585,7 +2584,7 @@
       <c r="E48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="5" t="b">
+      <c r="F48" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2605,7 +2604,7 @@
       <c r="E49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="5" t="b">
+      <c r="F49" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2625,7 +2624,7 @@
       <c r="E50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="5" t="b">
+      <c r="F50" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2645,7 +2644,7 @@
       <c r="E51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="5" t="b">
+      <c r="F51" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,7 +2664,7 @@
       <c r="E52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="5" t="b">
+      <c r="F52" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2685,7 +2684,7 @@
       <c r="E53" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="5" t="b">
+      <c r="F53" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2705,7 +2704,7 @@
       <c r="E54" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="5" t="b">
+      <c r="F54" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,7 +2724,7 @@
       <c r="E55" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="5" t="b">
+      <c r="F55" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2745,7 +2744,7 @@
       <c r="E56" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="5" t="b">
+      <c r="F56" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2765,7 +2764,7 @@
       <c r="E57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="5" t="b">
+      <c r="F57" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2785,7 +2784,7 @@
       <c r="E58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="5" t="b">
+      <c r="F58" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2805,7 +2804,7 @@
       <c r="E59" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="5" t="b">
+      <c r="F59" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2825,7 +2824,7 @@
       <c r="E60" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="5" t="b">
+      <c r="F60" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2845,7 +2844,7 @@
       <c r="E61" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="5" t="b">
+      <c r="F61" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2865,7 +2864,7 @@
       <c r="E62" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="5" t="b">
+      <c r="F62" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2885,7 +2884,7 @@
       <c r="E63" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="5" t="b">
+      <c r="F63" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2905,7 +2904,7 @@
       <c r="E64" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="5" t="b">
+      <c r="F64" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2924,7 @@
       <c r="E65" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="5" t="b">
+      <c r="F65" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2945,7 +2944,7 @@
       <c r="E66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="5" t="b">
+      <c r="F66" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +2964,7 @@
       <c r="E67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F67" s="5" t="b">
+      <c r="F67" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,7 +2984,7 @@
       <c r="E68" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="5" t="b">
+      <c r="F68" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +3004,7 @@
       <c r="E69" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="5" t="b">
+      <c r="F69" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3025,7 +3024,7 @@
       <c r="E70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="5" t="b">
+      <c r="F70" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3045,7 +3044,7 @@
       <c r="E71" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="5" t="b">
+      <c r="F71" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3064,7 @@
       <c r="E72" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="5" t="b">
+      <c r="F72" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3085,7 +3084,7 @@
       <c r="E73" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F73" s="5" t="b">
+      <c r="F73" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3105,7 +3104,7 @@
       <c r="E74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="5" t="b">
+      <c r="F74" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3125,7 +3124,7 @@
       <c r="E75" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F75" s="5" t="b">
+      <c r="F75" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3144,7 @@
       <c r="E76" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F76" s="5" t="b">
+      <c r="F76" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3165,7 +3164,7 @@
       <c r="E77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F77" s="5" t="b">
+      <c r="F77" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3185,7 +3184,7 @@
       <c r="E78" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="5" t="b">
+      <c r="F78" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3205,7 +3204,7 @@
       <c r="E79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="5" t="b">
+      <c r="F79" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3225,7 +3224,7 @@
       <c r="E80" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="5" t="b">
+      <c r="F80" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,7 +3244,7 @@
       <c r="E81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="5" t="b">
+      <c r="F81" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3262,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="5" t="b">
+      <c r="F82" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3281,7 +3280,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="5" t="b">
+      <c r="F83" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3301,7 +3300,7 @@
       <c r="E84" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="5" t="b">
+      <c r="F84" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3318,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="5" t="b">
+      <c r="F85" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3338,7 @@
       <c r="E86" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="5" t="b">
+      <c r="F86" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3357,7 +3356,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="5" t="b">
+      <c r="F87" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3374,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="5" t="b">
+      <c r="F88" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3393,7 +3392,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="5" t="b">
+      <c r="F89" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3413,7 +3412,7 @@
       <c r="E90" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="5" t="b">
+      <c r="F90" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +3432,7 @@
       <c r="E91" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F91" s="5" t="b">
+      <c r="F91" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,7 +3452,7 @@
       <c r="E92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F92" s="5" t="b">
+      <c r="F92" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3471,7 +3470,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="5" t="b">
+      <c r="F93" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3491,7 +3490,7 @@
       <c r="E94" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F94" s="5" t="b">
+      <c r="F94" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,7 +3510,7 @@
       <c r="E95" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="5" t="b">
+      <c r="F95" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,7 +3530,7 @@
       <c r="E96" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F96" s="5" t="b">
+      <c r="F96" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +3550,7 @@
       <c r="E97" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F97" s="5" t="b">
+      <c r="F97" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3570,7 @@
       <c r="E98" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F98" s="5" t="b">
+      <c r="F98" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +3590,7 @@
       <c r="E99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F99" s="5" t="b">
+      <c r="F99" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +3610,7 @@
       <c r="E100" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F100" s="5" t="b">
+      <c r="F100" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3631,7 +3630,7 @@
       <c r="E101" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F101" s="5" t="b">
+      <c r="F101" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3651,7 +3650,7 @@
       <c r="E102" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="5" t="b">
+      <c r="F102" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3671,7 +3670,7 @@
       <c r="E103" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F103" s="5" t="b">
+      <c r="F103" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3691,7 +3690,7 @@
       <c r="E104" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F104" s="5" t="b">
+      <c r="F104" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3711,7 +3710,7 @@
       <c r="E105" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F105" s="5" t="b">
+      <c r="F105" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3731,7 +3730,7 @@
       <c r="E106" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F106" s="5" t="b">
+      <c r="F106" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3751,7 +3750,7 @@
       <c r="E107" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F107" s="5" t="b">
+      <c r="F107" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3771,7 +3770,7 @@
       <c r="E108" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F108" s="5" t="b">
+      <c r="F108" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,7 +3790,7 @@
       <c r="E109" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F109" s="5" t="b">
+      <c r="F109" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3811,7 +3810,7 @@
       <c r="E110" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F110" s="5" t="b">
+      <c r="F110" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3831,7 +3830,7 @@
       <c r="E111" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="F111" s="5" t="b">
+      <c r="F111" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,7 +3850,7 @@
       <c r="E112" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="5" t="b">
+      <c r="F112" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3871,7 +3870,7 @@
       <c r="E113" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F113" s="5" t="b">
+      <c r="F113" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3891,7 +3890,7 @@
       <c r="E114" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F114" s="5" t="b">
+      <c r="F114" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3911,7 +3910,7 @@
       <c r="E115" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="F115" s="5" t="b">
+      <c r="F115" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3931,7 +3930,7 @@
       <c r="E116" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="F116" s="5" t="b">
+      <c r="F116" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3951,7 +3950,7 @@
       <c r="E117" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F117" s="5" t="b">
+      <c r="F117" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3971,7 +3970,7 @@
       <c r="E118" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F118" s="5" t="b">
+      <c r="F118" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3991,7 +3990,7 @@
       <c r="E119" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F119" s="5" t="b">
+      <c r="F119" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4011,7 +4010,7 @@
       <c r="E120" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F120" s="5" t="b">
+      <c r="F120" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4031,7 +4030,7 @@
       <c r="E121" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F121" s="5" t="b">
+      <c r="F121" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,7 +4050,7 @@
       <c r="E122" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F122" s="5" t="b">
+      <c r="F122" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4071,7 +4070,7 @@
       <c r="E123" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F123" s="5" t="b">
+      <c r="F123" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4091,7 +4090,7 @@
       <c r="E124" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="F124" s="5" t="b">
+      <c r="F124" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4111,7 +4110,7 @@
       <c r="E125" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="F125" s="5" t="b">
+      <c r="F125" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4131,7 +4130,7 @@
       <c r="E126" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="F126" s="5" t="b">
+      <c r="F126" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4151,7 +4150,7 @@
       <c r="E127" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F127" s="5" t="b">
+      <c r="F127" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4170,7 @@
       <c r="E128" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F128" s="5" t="b">
+      <c r="F128" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4191,7 +4190,7 @@
       <c r="E129" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F129" s="5" t="b">
+      <c r="F129" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4211,7 +4210,7 @@
       <c r="E130" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="F130" s="5" t="b">
+      <c r="F130" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4231,7 +4230,7 @@
       <c r="E131" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="F131" s="5" t="b">
+      <c r="F131" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4248,7 +4247,7 @@
       <c r="D132" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="5" t="b">
+      <c r="F132" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4265,7 +4264,7 @@
       <c r="D133" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F133" s="5" t="b">
+      <c r="F133" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,7 +4284,7 @@
       <c r="E134" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="5" t="b">
+      <c r="F134" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4305,7 +4304,7 @@
       <c r="E135" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="F135" s="5" t="b">
+      <c r="F135" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4325,7 +4324,7 @@
       <c r="E136" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="F136" s="5" t="b">
+      <c r="F136" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4345,7 +4344,7 @@
       <c r="E137" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="F137" s="5" t="b">
+      <c r="F137" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4362,7 +4361,7 @@
       <c r="D138" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F138" s="5" t="b">
+      <c r="F138" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4381,7 @@
       <c r="E139" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="5" t="b">
+      <c r="F139" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4402,7 +4401,7 @@
       <c r="E140" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F140" s="5" t="b">
+      <c r="F140" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4422,7 +4421,7 @@
       <c r="E141" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F141" s="5" t="b">
+      <c r="F141" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4442,7 +4441,7 @@
       <c r="E142" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F142" s="5" t="b">
+      <c r="F142" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4462,7 +4461,7 @@
       <c r="E143" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F143" s="5" t="b">
+      <c r="F143" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4482,7 +4481,7 @@
       <c r="E144" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F144" s="5" t="b">
+      <c r="F144" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,7 +4501,7 @@
       <c r="E145" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="5" t="b">
+      <c r="F145" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4521,7 @@
       <c r="E146" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="F146" s="5" t="b">
+      <c r="F146" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4541,7 @@
       <c r="E147" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F147" s="5" t="b">
+      <c r="F147" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4562,7 +4561,7 @@
       <c r="E148" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F148" s="5" t="b">
+      <c r="F148" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4582,7 +4581,7 @@
       <c r="E149" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F149" s="5" t="b">
+      <c r="F149" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4602,7 +4601,7 @@
       <c r="E150" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F150" s="5" t="b">
+      <c r="F150" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4622,7 +4621,7 @@
       <c r="E151" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F151" s="5" t="b">
+      <c r="F151" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4641,7 @@
       <c r="E152" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F152" s="5" t="b">
+      <c r="F152" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4662,7 +4661,7 @@
       <c r="E153" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F153" s="5" t="b">
+      <c r="F153" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +4681,7 @@
       <c r="E154" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="F154" s="5" t="b">
+      <c r="F154" s="5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="367">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -768,6 +768,81 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum stomatal conductance to water vapour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gsw_AC_slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slope of the Gsw vs Ac/Cs relationship (Baldocchi model).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">mol CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Gs_Toptim</t>
@@ -1514,7 +1589,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1579,9 +1654,29 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1660,10 +1755,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1677,6 +1768,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1699,10 +1794,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1711,6 +1806,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1842,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,7 +1859,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,7 +1876,7 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1797,7 +1893,7 @@
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1910,7 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1927,7 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,7 +1944,7 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1961,7 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,7 +1981,7 @@
       <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,7 +2001,7 @@
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,7 +2021,7 @@
       <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1945,7 +2041,7 @@
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1965,7 +2061,7 @@
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1985,7 +2081,7 @@
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,7 +2101,7 @@
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,7 +2121,7 @@
       <c r="E17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2045,7 +2141,7 @@
       <c r="E18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2161,7 @@
       <c r="E19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2083,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,7 +2197,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2118,7 +2214,7 @@
       <c r="D22" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2135,7 +2231,7 @@
       <c r="D23" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2152,7 +2248,7 @@
       <c r="D24" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2169,7 +2265,7 @@
       <c r="D25" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2186,7 +2282,7 @@
       <c r="D26" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2203,7 +2299,7 @@
       <c r="D27" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2223,7 +2319,7 @@
       <c r="E28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,7 +2339,7 @@
       <c r="E29" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,7 +2356,7 @@
       <c r="D30" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2373,7 @@
       <c r="D31" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2390,7 @@
       <c r="D32" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2311,7 +2407,7 @@
       <c r="D33" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +2424,7 @@
       <c r="D34" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2345,7 +2441,7 @@
       <c r="D35" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2362,7 +2458,7 @@
       <c r="D36" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2379,7 +2475,7 @@
       <c r="D37" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,7 +2492,7 @@
       <c r="D38" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,7 +2509,7 @@
       <c r="D39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2430,7 +2526,7 @@
       <c r="D40" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2447,7 +2543,7 @@
       <c r="D41" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2464,7 +2560,7 @@
       <c r="D42" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +2568,7 @@
       <c r="A43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -2484,7 +2580,7 @@
       <c r="E43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2492,7 +2588,7 @@
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -2504,7 +2600,7 @@
       <c r="E44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2512,7 +2608,7 @@
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -2524,7 +2620,7 @@
       <c r="E45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2532,7 +2628,7 @@
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -2544,7 +2640,7 @@
       <c r="E46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2648,7 @@
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -2564,7 +2660,7 @@
       <c r="E47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,7 +2668,7 @@
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -2584,7 +2680,7 @@
       <c r="E48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2688,7 @@
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -2604,7 +2700,7 @@
       <c r="E49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2612,7 +2708,7 @@
       <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -2624,7 +2720,7 @@
       <c r="E50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2632,7 +2728,7 @@
       <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -2644,7 +2740,7 @@
       <c r="E51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2652,7 +2748,7 @@
       <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -2664,7 +2760,7 @@
       <c r="E52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2672,7 +2768,7 @@
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -2684,7 +2780,7 @@
       <c r="E53" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2788,7 @@
       <c r="A54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -2704,7 +2800,7 @@
       <c r="E54" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2712,7 +2808,7 @@
       <c r="A55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -2724,7 +2820,7 @@
       <c r="E55" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2732,7 +2828,7 @@
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -2744,7 +2840,7 @@
       <c r="E56" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +2848,7 @@
       <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -2764,7 +2860,7 @@
       <c r="E57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2772,7 +2868,7 @@
       <c r="A58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -2784,7 +2880,7 @@
       <c r="E58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2792,7 +2888,7 @@
       <c r="A59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -2804,7 +2900,7 @@
       <c r="E59" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,7 +2908,7 @@
       <c r="A60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -2821,10 +2917,10 @@
       <c r="D60" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2832,7 +2928,7 @@
       <c r="A61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -2844,7 +2940,7 @@
       <c r="E61" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2948,7 @@
       <c r="A62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -2864,7 +2960,7 @@
       <c r="E62" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2872,7 +2968,7 @@
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -2884,7 +2980,7 @@
       <c r="E63" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2892,7 +2988,7 @@
       <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -2904,7 +3000,7 @@
       <c r="E64" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2912,7 +3008,7 @@
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -2924,7 +3020,7 @@
       <c r="E65" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2932,7 +3028,7 @@
       <c r="A66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -2944,7 +3040,7 @@
       <c r="E66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2952,7 +3048,7 @@
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -2964,7 +3060,7 @@
       <c r="E67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2972,7 +3068,7 @@
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -2984,7 +3080,7 @@
       <c r="E68" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +3088,7 @@
       <c r="A69" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -3004,7 +3100,7 @@
       <c r="E69" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="5" t="n">
+      <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3012,7 +3108,7 @@
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -3024,7 +3120,7 @@
       <c r="E70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3128,7 @@
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -3044,7 +3140,7 @@
       <c r="E71" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3052,7 +3148,7 @@
       <c r="A72" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -3064,7 +3160,7 @@
       <c r="E72" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,7 +3168,7 @@
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C73" s="0" t="s">
@@ -3084,7 +3180,7 @@
       <c r="E73" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3092,7 +3188,7 @@
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="0" t="s">
@@ -3104,7 +3200,7 @@
       <c r="E74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +3208,7 @@
       <c r="A75" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
@@ -3124,7 +3220,7 @@
       <c r="E75" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,7 +3228,7 @@
       <c r="A76" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -3144,7 +3240,7 @@
       <c r="E76" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3152,7 +3248,7 @@
       <c r="A77" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -3164,7 +3260,7 @@
       <c r="E77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3172,7 +3268,7 @@
       <c r="A78" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C78" s="0" t="s">
@@ -3184,7 +3280,7 @@
       <c r="E78" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="5" t="n">
+      <c r="F78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +3288,7 @@
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -3204,7 +3300,7 @@
       <c r="E79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3212,7 +3308,7 @@
       <c r="A80" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C80" s="0" t="s">
@@ -3224,7 +3320,7 @@
       <c r="E80" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3232,7 +3328,7 @@
       <c r="A81" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="0" t="s">
@@ -3244,7 +3340,7 @@
       <c r="E81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3252,7 +3348,7 @@
       <c r="A82" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -3262,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3270,7 +3366,7 @@
       <c r="A83" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -3280,7 +3376,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3288,7 +3384,7 @@
       <c r="A84" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -3300,7 +3396,7 @@
       <c r="E84" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3308,7 +3404,7 @@
       <c r="A85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -3318,7 +3414,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="5" t="n">
+      <c r="F85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3326,7 +3422,7 @@
       <c r="A86" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -3338,7 +3434,7 @@
       <c r="E86" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3442,7 @@
       <c r="A87" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -3356,7 +3452,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3364,7 +3460,7 @@
       <c r="A88" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -3374,7 +3470,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +3478,7 @@
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -3392,7 +3488,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3400,10 +3496,10 @@
       <c r="A90" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>211</v>
       </c>
       <c r="D90" s="0" t="s">
@@ -3412,7 +3508,7 @@
       <c r="E90" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3420,7 +3516,7 @@
       <c r="A91" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -3432,7 +3528,7 @@
       <c r="E91" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3440,7 +3536,7 @@
       <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -3449,68 +3545,68 @@
       <c r="D92" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="5" t="n">
+      <c r="E92" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="5" t="n">
+      <c r="E93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B94" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F94" s="5" t="n">
+      <c r="E94" s="4"/>
+      <c r="F94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3518,7 +3614,7 @@
       <c r="A96" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -3530,7 +3626,7 @@
       <c r="E96" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +3634,7 @@
       <c r="A97" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -3548,21 +3644,21 @@
         <v>43</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F97" s="5" t="n">
+        <v>229</v>
+      </c>
+      <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B98" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>43</v>
@@ -3570,19 +3666,19 @@
       <c r="E98" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F98" s="5" t="n">
+      <c r="F98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B99" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>43</v>
@@ -3590,47 +3686,47 @@
       <c r="E99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F99" s="5" t="n">
+      <c r="F99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B100" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F100" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F101" s="5" t="n">
+        <v>226</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,7 +3734,7 @@
       <c r="A102" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -3648,21 +3744,21 @@
         <v>43</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="F102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>43</v>
@@ -3670,19 +3766,19 @@
       <c r="E103" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F103" s="5" t="n">
+      <c r="F103" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>43</v>
@@ -3690,79 +3786,79 @@
       <c r="E104" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B105" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F105" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F105" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B106" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F106" s="5" t="n">
+        <v>226</v>
+      </c>
+      <c r="F106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B107" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F107" s="5" t="n">
+        <v>240</v>
+      </c>
+      <c r="F107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B108" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>43</v>
@@ -3770,19 +3866,19 @@
       <c r="E108" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F108" s="5" t="n">
+      <c r="F108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B109" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>43</v>
@@ -3790,47 +3886,47 @@
       <c r="E109" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F109" s="5" t="n">
+      <c r="F109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B110" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F110" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="F110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F111" s="5" t="n">
+      <c r="E111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3838,7 +3934,7 @@
       <c r="A112" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -3850,7 +3946,7 @@
       <c r="E112" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="5" t="n">
+      <c r="F112" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3858,7 +3954,7 @@
       <c r="A113" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C113" s="0" t="s">
@@ -3867,10 +3963,10 @@
       <c r="D113" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,19 +3974,19 @@
       <c r="A114" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3899,38 +3995,38 @@
         <v>268</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F115" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="F116" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="F116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +4035,7 @@
         <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>274</v>
@@ -3947,10 +4043,10 @@
       <c r="D117" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="F117" s="5" t="n">
+      <c r="F117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3959,7 +4055,7 @@
         <v>276</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>277</v>
@@ -3967,50 +4063,50 @@
       <c r="D118" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F118" s="5" t="n">
+      <c r="E118" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F120" s="5" t="n">
+      <c r="E120" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4019,7 +4115,7 @@
         <v>283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>284</v>
@@ -4027,50 +4123,50 @@
       <c r="D121" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F121" s="5" t="n">
+      <c r="E121" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F123" s="5" t="n">
+      <c r="E123" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F123" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4079,7 +4175,7 @@
         <v>290</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>291</v>
@@ -4087,10 +4183,10 @@
       <c r="D124" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F124" s="5" t="n">
+      <c r="F124" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4099,7 +4195,7 @@
         <v>293</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>294</v>
@@ -4110,7 +4206,7 @@
       <c r="E125" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4119,7 +4215,7 @@
         <v>296</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>297</v>
@@ -4130,7 +4226,7 @@
       <c r="E126" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="F126" s="5" t="n">
+      <c r="F126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4139,7 +4235,7 @@
         <v>299</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>300</v>
@@ -4150,7 +4246,7 @@
       <c r="E127" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F127" s="5" t="n">
+      <c r="F127" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4159,7 +4255,7 @@
         <v>302</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>303</v>
@@ -4168,38 +4264,38 @@
         <v>43</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F128" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="F128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F129" s="5" t="n">
+      <c r="F129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>308</v>
@@ -4208,18 +4304,18 @@
         <v>43</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="F130" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>311</v>
@@ -4230,7 +4326,7 @@
       <c r="E131" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="F131" s="5" t="n">
+      <c r="F131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4239,7 +4335,7 @@
         <v>313</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>314</v>
@@ -4247,33 +4343,36 @@
       <c r="D132" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="5" t="n">
+      <c r="E132" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F133" s="5" t="n">
+      <c r="F133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="A134" s="2" t="s">
         <v>318</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>319</v>
@@ -4281,30 +4380,27 @@
       <c r="D134" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="F134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="F135" s="5" t="n">
+      <c r="F135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4312,8 +4408,8 @@
       <c r="A136" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>318</v>
+      <c r="B136" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>324</v>
@@ -4324,7 +4420,7 @@
       <c r="E136" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="F136" s="5" t="n">
+      <c r="F136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4332,8 +4428,8 @@
       <c r="A137" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>318</v>
+      <c r="B137" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>327</v>
@@ -4344,7 +4440,7 @@
       <c r="E137" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="F137" s="5" t="n">
+      <c r="F137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4352,8 +4448,8 @@
       <c r="A138" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>318</v>
+      <c r="B138" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>330</v>
@@ -4361,119 +4457,119 @@
       <c r="D138" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F138" s="5" t="n">
+      <c r="E138" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F138" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>318</v>
+      <c r="A139" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F140" s="5" t="n">
+      <c r="F140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F141" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E142" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F142" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F143" s="5" t="n">
+      <c r="F143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>318</v>
+      <c r="A144" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>43</v>
@@ -4481,19 +4577,19 @@
       <c r="E144" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>43</v>
@@ -4501,27 +4597,27 @@
       <c r="E145" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="5" t="n">
+      <c r="F145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="F146" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F146" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4529,8 +4625,8 @@
       <c r="A147" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>318</v>
+      <c r="B147" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>349</v>
@@ -4539,41 +4635,41 @@
         <v>43</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F147" s="5" t="n">
+        <v>350</v>
+      </c>
+      <c r="F147" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F148" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="F148" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>43</v>
@@ -4581,39 +4677,39 @@
       <c r="E149" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F149" s="5" t="n">
+      <c r="F149" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F150" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C151" s="7" t="s">
         <v>357</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>358</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>43</v>
@@ -4621,19 +4717,19 @@
       <c r="E151" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="F151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C152" s="7" t="s">
         <v>359</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>43</v>
@@ -4641,47 +4737,67 @@
       <c r="E152" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F152" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" s="0" t="s">
         <v>361</v>
       </c>
+      <c r="B153" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="D153" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F153" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F153" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>318</v>
+        <v>363</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="F154" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="F155" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -782,6 +782,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mol H</t>
     </r>
@@ -792,6 +793,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -801,6 +803,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">O * </t>
     </r>
@@ -820,6 +823,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mol CO</t>
     </r>
@@ -830,6 +834,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -840,6 +845,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-1</t>
     </r>
@@ -1589,7 +1595,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* \-??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1654,29 +1660,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1734,7 +1720,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1771,10 +1757,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,7 +1788,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +1859,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,7 +3527,7 @@
       <c r="D92" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="4" t="s">
         <v>217</v>
       </c>
       <c r="F92" s="0" t="n">
@@ -3943,7 +3925,7 @@
       <c r="D112" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>261</v>
       </c>
       <c r="F112" s="0" t="n">
@@ -3963,7 +3945,7 @@
       <c r="D113" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F113" s="0" t="n">

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="371">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum plant height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum tree diameter</t>
   </si>
   <si>
     <t xml:space="preserve">Z50</t>
@@ -1452,7 +1458,13 @@
     <t xml:space="preserve">Regeneration</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum height for seed production</t>
+    <t xml:space="preserve">Minimum shrub height for seed production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeedProductionDiameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum tree diameter for seed production</t>
   </si>
   <si>
     <t xml:space="preserve">SeedMass</t>
@@ -1776,10 +1788,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2121,7 +2133,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -2129,22 +2141,22 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,9 +2172,11 @@
       <c r="D20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,27 +2202,28 @@
         <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>43</v>
@@ -2219,13 +2234,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>43</v>
@@ -2239,10 +2254,10 @@
         <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>43</v>
@@ -2253,13 +2268,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>43</v>
@@ -2273,10 +2288,10 @@
         <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>43</v>
@@ -2287,19 +2302,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
@@ -2307,19 +2319,19 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
@@ -2330,13 +2342,16 @@
         <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D30" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -2344,13 +2359,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>43</v>
@@ -2361,13 +2376,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>43</v>
@@ -2378,13 +2393,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>43</v>
@@ -2398,10 +2413,10 @@
         <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>43</v>
@@ -2412,13 +2427,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>43</v>
@@ -2429,13 +2444,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>43</v>
@@ -2446,13 +2461,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>43</v>
@@ -2463,13 +2478,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>43</v>
@@ -2480,13 +2495,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>43</v>
@@ -2500,10 +2515,10 @@
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>43</v>
@@ -2514,13 +2529,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>43</v>
@@ -2534,10 +2549,10 @@
         <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>43</v>
@@ -2548,19 +2563,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="D43" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
@@ -2568,19 +2580,19 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
@@ -2608,19 +2620,19 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
@@ -2631,7 +2643,7 @@
         <v>101</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>102</v>
@@ -2640,7 +2652,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
@@ -2651,7 +2663,7 @@
         <v>103</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>104</v>
@@ -2660,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>0</v>
@@ -2668,19 +2680,19 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
@@ -2691,16 +2703,16 @@
         <v>108</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
@@ -2731,16 +2743,16 @@
         <v>113</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="D52" s="0" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
@@ -2748,19 +2760,19 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
@@ -2768,19 +2780,19 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="D54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
@@ -2791,7 +2803,7 @@
         <v>122</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>123</v>
@@ -2800,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
@@ -2811,7 +2823,7 @@
         <v>124</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>125</v>
@@ -2820,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0</v>
@@ -2828,19 +2840,19 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>0</v>
@@ -2848,19 +2860,19 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
@@ -2871,7 +2883,7 @@
         <v>132</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>133</v>
@@ -2879,8 +2891,8 @@
       <c r="D59" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>134</v>
+      <c r="E59" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
@@ -2888,19 +2900,19 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>0</v>
@@ -2911,7 +2923,7 @@
         <v>137</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>138</v>
@@ -2919,8 +2931,8 @@
       <c r="D61" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>44</v>
+      <c r="E61" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
@@ -2931,7 +2943,7 @@
         <v>139</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>140</v>
@@ -2940,7 +2952,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>0</v>
@@ -2948,19 +2960,19 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
@@ -2968,19 +2980,19 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="D64" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>0</v>
@@ -2988,19 +3000,19 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>0</v>
@@ -3011,7 +3023,7 @@
         <v>151</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>152</v>
@@ -3020,7 +3032,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>0</v>
@@ -3028,19 +3040,19 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
@@ -3051,7 +3063,7 @@
         <v>156</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>157</v>
@@ -3060,7 +3072,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>0</v>
@@ -3071,7 +3083,7 @@
         <v>158</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>159</v>
@@ -3080,7 +3092,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
@@ -3091,7 +3103,7 @@
         <v>160</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>161</v>
@@ -3100,7 +3112,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
@@ -3111,7 +3123,7 @@
         <v>162</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>163</v>
@@ -3120,7 +3132,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
@@ -3131,16 +3143,16 @@
         <v>164</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="D72" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -3148,19 +3160,19 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
@@ -3168,19 +3180,19 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="D74" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>0</v>
@@ -3191,16 +3203,16 @@
         <v>173</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="D75" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>0</v>
@@ -3208,19 +3220,19 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>0</v>
@@ -3231,7 +3243,7 @@
         <v>179</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>180</v>
@@ -3240,7 +3252,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>0</v>
@@ -3251,7 +3263,7 @@
         <v>181</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>182</v>
@@ -3260,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>0</v>
@@ -3268,19 +3280,19 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>0</v>
@@ -3291,7 +3303,7 @@
         <v>186</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>187</v>
@@ -3300,7 +3312,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>0</v>
@@ -3311,7 +3323,7 @@
         <v>188</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>189</v>
@@ -3320,7 +3332,7 @@
         <v>43</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>0</v>
@@ -3328,28 +3340,30 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="D82" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="4"/>
       <c r="F82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>195</v>
@@ -3367,7 +3381,7 @@
         <v>196</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>197</v>
@@ -3375,27 +3389,27 @@
       <c r="D84" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="E84" s="4"/>
       <c r="F84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="4"/>
       <c r="F85" s="0" t="n">
         <v>0</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>201</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>202</v>
@@ -3413,27 +3427,27 @@
       <c r="D86" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="E86" s="4"/>
       <c r="F86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="4"/>
       <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
@@ -3443,7 +3457,7 @@
         <v>206</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>207</v>
@@ -3461,7 +3475,7 @@
         <v>208</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>209</v>
@@ -3479,36 +3493,34 @@
         <v>210</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>211</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>0</v>
@@ -3519,7 +3531,7 @@
         <v>215</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>216</v>
@@ -3528,7 +3540,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>0</v>
@@ -3536,19 +3548,19 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
@@ -3559,7 +3571,7 @@
         <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>221</v>
@@ -3567,7 +3579,9 @@
       <c r="D94" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F94" s="0" t="n">
         <v>0</v>
       </c>
@@ -3577,7 +3591,7 @@
         <v>222</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>223</v>
@@ -3585,9 +3599,7 @@
       <c r="D95" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="0" t="n">
         <v>0</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>224</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>225</v>
@@ -3606,7 +3618,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>0</v>
@@ -3614,19 +3626,19 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
@@ -3634,19 +3646,19 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>0</v>
@@ -3657,7 +3669,7 @@
         <v>232</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>233</v>
@@ -3666,7 +3678,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>0</v>
@@ -3677,7 +3689,7 @@
         <v>234</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>235</v>
@@ -3686,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
@@ -3697,7 +3709,7 @@
         <v>236</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>237</v>
@@ -3706,7 +3718,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>0</v>
@@ -3717,7 +3729,7 @@
         <v>238</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>239</v>
@@ -3726,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>0</v>
@@ -3734,19 +3746,19 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
@@ -3757,7 +3769,7 @@
         <v>243</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>244</v>
@@ -3766,7 +3778,7 @@
         <v>43</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>0</v>
@@ -3777,7 +3789,7 @@
         <v>245</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>246</v>
@@ -3786,7 +3798,7 @@
         <v>43</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
@@ -3797,7 +3809,7 @@
         <v>247</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>248</v>
@@ -3806,7 +3818,7 @@
         <v>43</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>0</v>
@@ -3817,7 +3829,7 @@
         <v>249</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>250</v>
@@ -3826,7 +3838,7 @@
         <v>43</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>0</v>
@@ -3837,7 +3849,7 @@
         <v>251</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>252</v>
@@ -3846,7 +3858,7 @@
         <v>43</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>0</v>
@@ -3857,7 +3869,7 @@
         <v>253</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>254</v>
@@ -3866,7 +3878,7 @@
         <v>43</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>0</v>
@@ -3877,7 +3889,7 @@
         <v>255</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>256</v>
@@ -3886,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>0</v>
@@ -3897,7 +3909,7 @@
         <v>257</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>258</v>
@@ -3906,7 +3918,7 @@
         <v>43</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>0</v>
@@ -3917,7 +3929,7 @@
         <v>259</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>260</v>
@@ -3925,8 +3937,8 @@
       <c r="D112" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>261</v>
+      <c r="E112" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>0</v>
@@ -3934,19 +3946,19 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" s="0" t="s">
+      <c r="D113" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>0</v>
@@ -3954,19 +3966,19 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>267</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>0</v>
@@ -3974,19 +3986,19 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="D115" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>267</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
@@ -3994,10 +4006,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>272</v>
@@ -4006,7 +4018,7 @@
         <v>43</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>0</v>
@@ -4017,7 +4029,7 @@
         <v>273</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>274</v>
@@ -4026,7 +4038,7 @@
         <v>43</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>0</v>
@@ -4034,19 +4046,19 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>0</v>
@@ -4054,19 +4066,19 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>0</v>
@@ -4077,7 +4089,7 @@
         <v>281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>282</v>
@@ -4086,7 +4098,7 @@
         <v>43</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>0</v>
@@ -4097,7 +4109,7 @@
         <v>283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>284</v>
@@ -4106,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>0</v>
@@ -4114,19 +4126,19 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>0</v>
@@ -4137,7 +4149,7 @@
         <v>288</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>289</v>
@@ -4146,7 +4158,7 @@
         <v>43</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>0</v>
@@ -4157,7 +4169,7 @@
         <v>290</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>291</v>
@@ -4166,7 +4178,7 @@
         <v>43</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>0</v>
@@ -4174,19 +4186,19 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="0" t="s">
-        <v>295</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>0</v>
@@ -4194,19 +4206,19 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>298</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>0</v>
@@ -4214,19 +4226,19 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>0</v>
@@ -4234,19 +4246,19 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C128" s="0" t="s">
+      <c r="D128" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>0</v>
@@ -4254,19 +4266,19 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>0</v>
@@ -4277,7 +4289,7 @@
         <v>307</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>308</v>
@@ -4286,7 +4298,7 @@
         <v>43</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>0</v>
@@ -4297,16 +4309,16 @@
         <v>309</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="D131" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>0</v>
@@ -4314,19 +4326,19 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C132" s="0" t="s">
+      <c r="D132" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="0" t="s">
-        <v>315</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>0</v>
@@ -4334,16 +4346,19 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="0" t="s">
+      <c r="D133" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>0</v>
@@ -4354,7 +4369,7 @@
         <v>318</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>319</v>
@@ -4367,31 +4382,28 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="D135" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F135" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="B136" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>324</v>
@@ -4400,27 +4412,27 @@
         <v>43</v>
       </c>
       <c r="E136" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F136" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="B137" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="D137" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>0</v>
@@ -4428,19 +4440,19 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E138" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>0</v>
@@ -4448,36 +4460,39 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C139" s="0" t="s">
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F139" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
+      <c r="B140" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C140" s="0" t="s">
+      <c r="D140" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>0</v>
@@ -4488,7 +4503,7 @@
         <v>336</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>337</v>
@@ -4496,19 +4511,16 @@
       <c r="D141" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E141" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="F141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="6" t="s">
         <v>338</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>339</v>
@@ -4517,7 +4529,7 @@
         <v>43</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>0</v>
@@ -4528,7 +4540,7 @@
         <v>340</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>341</v>
@@ -4537,18 +4549,18 @@
         <v>43</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="0" t="s">
         <v>342</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>343</v>
@@ -4557,7 +4569,7 @@
         <v>43</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>0</v>
@@ -4568,7 +4580,7 @@
         <v>344</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>345</v>
@@ -4577,18 +4589,18 @@
         <v>43</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>347</v>
@@ -4608,7 +4620,7 @@
         <v>348</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>349</v>
@@ -4617,7 +4629,7 @@
         <v>43</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>0</v>
@@ -4625,19 +4637,19 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>352</v>
-      </c>
       <c r="D148" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>0</v>
@@ -4645,19 +4657,19 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" s="0" t="s">
+      <c r="D149" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>0</v>
@@ -4668,7 +4680,7 @@
         <v>355</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>356</v>
@@ -4677,7 +4689,7 @@
         <v>43</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>0</v>
@@ -4688,7 +4700,7 @@
         <v>357</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>358</v>
@@ -4697,7 +4709,7 @@
         <v>43</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>0</v>
@@ -4708,16 +4720,16 @@
         <v>359</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="0" t="s">
         <v>360</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>0</v>
@@ -4728,16 +4740,16 @@
         <v>361</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="0" t="s">
         <v>362</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>0</v>
@@ -4748,16 +4760,16 @@
         <v>363</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C154" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>364</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>0</v>
@@ -4768,18 +4780,58 @@
         <v>365</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C155" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>366</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="F155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F157" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Definition" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Definition" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1732,40 +1732,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1783,3055 +1787,3161 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B139" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="70.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="0" t="n">
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="0" t="n">
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="0" t="n">
+      <c r="D28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="0" t="n">
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="0" t="n">
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="0" t="n">
+      <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="0" t="n">
+      <c r="D36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="0" t="n">
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="0" t="n">
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="0" t="n">
+      <c r="D39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="0" t="n">
+      <c r="D40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="0" t="n">
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="0" t="n">
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="0" t="n">
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="D55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="0" t="s">
+      <c r="D56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="0" t="s">
+      <c r="D57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="0" t="s">
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="0" t="s">
+      <c r="D62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="D63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="D64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="D73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="0" t="n">
+      <c r="D83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="0" t="n">
+      <c r="D84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="0" t="n">
+      <c r="D86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="0" t="n">
+      <c r="D88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="0" t="n">
+      <c r="D89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="D90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="D91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="0" t="n">
+      <c r="D95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F105" s="0" t="n">
+      <c r="F105" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="4" t="s">
+      <c r="D106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F106" s="0" t="n">
+      <c r="F106" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F107" s="0" t="n">
+      <c r="F107" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F108" s="0" t="n">
+      <c r="F108" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="4" t="s">
+      <c r="D109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F109" s="0" t="n">
+      <c r="F109" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="4" t="s">
+      <c r="D110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F110" s="0" t="n">
+      <c r="F110" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="D111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F111" s="0" t="n">
+      <c r="F111" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F112" s="0" t="n">
+      <c r="F112" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="D113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F113" s="0" t="n">
+      <c r="F113" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="8" t="s">
+      <c r="D114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F114" s="0" t="n">
+      <c r="F114" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="D115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F115" s="0" t="n">
+      <c r="F115" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="0" t="s">
+      <c r="D116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F116" s="0" t="n">
+      <c r="F116" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E117" s="0" t="s">
+      <c r="D117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="0" t="s">
+      <c r="D118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="6" t="s">
+      <c r="D119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="6" t="s">
+      <c r="D120" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="D121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="6" t="s">
+      <c r="D122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="6" t="s">
+      <c r="D123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F123" s="0" t="n">
+      <c r="F123" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="6" t="s">
+      <c r="D124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F124" s="0" t="n">
+      <c r="F124" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="6" t="s">
+      <c r="D125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F125" s="0" t="n">
+      <c r="F125" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E126" s="0" t="s">
+      <c r="D126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F126" s="0" t="n">
+      <c r="F126" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E127" s="0" t="s">
+      <c r="D127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F127" s="0" t="n">
+      <c r="F127" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="0" t="s">
+      <c r="D128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F128" s="0" t="n">
+      <c r="F128" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="0" t="s">
+      <c r="D129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F129" s="0" t="n">
+      <c r="F129" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E130" s="0" t="s">
+      <c r="D130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F130" s="0" t="n">
+      <c r="F130" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E131" s="0" t="s">
+      <c r="D131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F131" s="0" t="n">
+      <c r="F131" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="0" t="s">
+      <c r="D132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F132" s="0" t="n">
+      <c r="F132" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D133" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" s="0" t="s">
+      <c r="D133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F133" s="0" t="n">
+      <c r="F133" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="0" t="n">
+      <c r="D134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="0" t="n">
+      <c r="D135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E136" s="0" t="s">
+      <c r="D136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F136" s="0" t="n">
+      <c r="F136" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="0" t="s">
+      <c r="D137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F137" s="0" t="n">
+      <c r="F137" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E138" s="0" t="s">
+      <c r="D138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F138" s="0" t="n">
+      <c r="F138" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E139" s="0" t="s">
+      <c r="D139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F139" s="0" t="n">
+      <c r="F139" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D140" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="0" t="s">
+      <c r="D140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F140" s="0" t="n">
+      <c r="F140" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D141" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" s="0" t="n">
+      <c r="D141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D142" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E142" s="0" t="s">
+      <c r="D142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F142" s="0" t="n">
+      <c r="F142" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D143" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="0" t="s">
+      <c r="D143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F143" s="0" t="n">
+      <c r="F143" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E144" s="0" t="s">
+      <c r="D144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F144" s="0" t="n">
+      <c r="F144" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D145" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E145" s="0" t="s">
+      <c r="D145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F145" s="0" t="n">
+      <c r="F145" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E146" s="0" t="s">
+      <c r="D146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F146" s="0" t="n">
+      <c r="F146" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D147" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E147" s="0" t="s">
+      <c r="D147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F147" s="0" t="n">
+      <c r="F147" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D148" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E148" s="0" t="s">
+      <c r="D148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F148" s="0" t="n">
+      <c r="F148" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D149" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E149" s="0" t="s">
+      <c r="D149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D150" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E150" s="0" t="s">
+      <c r="D150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F150" s="0" t="n">
+      <c r="F150" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D151" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E151" s="0" t="s">
+      <c r="D151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F151" s="0" t="n">
+      <c r="F151" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D152" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E152" s="0" t="s">
+      <c r="D152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F152" s="0" t="n">
+      <c r="F152" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E153" s="0" t="s">
+      <c r="D153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F153" s="0" t="n">
+      <c r="F153" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D154" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E154" s="0" t="s">
+      <c r="D154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F154" s="0" t="n">
+      <c r="F154" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D155" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E155" s="0" t="s">
+      <c r="D155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F155" s="0" t="n">
+      <c r="F155" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D156" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="0" t="s">
+      <c r="D156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F156" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="F157" s="0" t="n">
+      <c r="F157" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -1524,10 +1524,10 @@
     <t xml:space="preserve">Minimum percentage of PAR at the ground level for successful recruitment</t>
   </si>
   <si>
-    <t xml:space="preserve">RecrTreeDBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment tree dbh (typically 1 cm)</t>
+    <t xml:space="preserve">RecrAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of recruiment</t>
   </si>
   <si>
     <t xml:space="preserve">RecrTreeHeight</t>
@@ -1900,8 +1900,8 @@
   </sheetPr>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B139" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C146" activeCellId="0" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4706,23 +4706,20 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F146" s="1" t="n">
-        <v>0</v>
+      <c r="D146" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data-raw/SpParamsDefinition.xlsx
+++ b/data-raw/SpParamsDefinition.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="367">
   <si>
     <t xml:space="preserve">ParameterName</t>
   </si>
@@ -1555,18 +1555,6 @@
   </si>
   <si>
     <t xml:space="preserve">Recruitment shrub cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrZ50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment depth corresponding to 50% of fine roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecrZ95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recruitment depth corresponding to 95% of fine roots</t>
   </si>
   <si>
     <t xml:space="preserve">RespFire</t>
@@ -1898,10 +1886,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C146" activeCellId="0" sqref="C146"/>
+      <selection pane="topLeft" activeCell="C153" activeCellId="0" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4706,19 +4694,19 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E146" s="0" t="s">
+      <c r="D146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4816,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F151" s="1" t="n">
         <v>0</v>
@@ -4829,14 +4817,14 @@
       <c r="B152" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="7" t="s">
         <v>360</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F152" s="1" t="n">
         <v>0</v>
@@ -4849,7 +4837,7 @@
       <c r="B153" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="7" t="s">
         <v>362</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -4869,14 +4857,14 @@
       <c r="B154" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>70</v>
+        <v>354</v>
       </c>
       <c r="F154" s="1" t="n">
         <v>0</v>
@@ -4889,59 +4877,21 @@
       <c r="B155" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F155" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F156" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F157" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
